--- a/output/Total_time_range_data/四川省/宜宾市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/宜宾市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1406 +436,1540 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>239</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到宁德市学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zzzq/jryb_17319/202304/t20230405_1839341.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十届二中全会和全国两会精神，坚定以中国式现代化引领宜宾现代化建设，4月3日至4日，市委书记方存好，市委副书记、市长廖文彬率宜宾市党政代表团到福建省宁德市学习考察。宁德市委书记梁伟新，市委副书记、市长张永宁，市委副书记杨方，宁德时代董事长曾毓群分段陪同。', '宁德区位优势独特、港口岸线富集、产业特色鲜明、生态环境优美、人文底蕴深厚。近年来，宁德市坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神和习近平总书记对宁德工作重要讲话重要指示精神，认真贯彻党中央、省委决策部署，保持了经济较快发展和社会大局稳定。2022年，全市12项主要经济指标中，有8项指标增幅位居全省前列，延续了近年来高质量跨越式发展的强劲势头。', '学习考察期间，党政代表团一行来到宁德时代新能源科技有限公司、上汽宁德基地、下白石镇下岐村、青拓集团、中铜东南铜业、漳湾作业区等地，实地了解宁德市产业发展、园区建设、民生工程、物流通道等情况;参观了摆脱贫困主题展览，通过图文展示、场景还原等形式，详细了解了宁德市摆脱贫困、旧貌换新颜的奋斗历程。', '边学边看边思考。此次学习考察，让宜宾市党政代表团一行收获颇丰。方存好说，宁德是习近平总书记曾经工作过的地方，是习近平新时代中国特色社会主义思想的重要萌发地。近年来，宁德深入贯彻习近平新时代中国特色社会主义思想，大力传承弘扬闽东精神，牢记习近平总书记嘱托，在福建省委的坚强领导下，经济社会发展取得显著成绩，其中的好经验、好做法值得宜宾深入学习借鉴。两市因动力电池而结缘，在过去的交流合作中结下了深厚的友谊，此次来到宁德考察学习，目的就是学习先进、深化合作，见贤思齐、接续奋斗。希望在今后的发展中，两市进一步建立长效机制，充分发挥各自优势，在高质量发展道路上相互赋能，不断拓展合作领域、巩固交流合作成果，以中国式现代化引领两市经济社会实现更高质量发展。', '梁伟新对宜宾市党政代表团来宁德表示热烈欢迎，对宜宾市近年来经济社会发展取得的成绩表示祝贺。他说，宁德和宜宾有着深厚感情和合作基础。当前，宁德正按照习近平总书记擘画的宏伟蓝图，加快打造“增长极”、建设“四个区”，奋力谱写“宁德篇章”，努力在推进中国式现代化中走前头、当先锋。希望两地在新起点上进一步加强沟通交流，发挥各自产业优势、资源优势，在新能源产业对接、乡村振兴、人才交流等方面全方位深化合作，实现携手共进、共赢发展。', '宜宾市领导刘晓卫、陶学周、何永宏、华淑蕊，五粮液集团公司董事长曾从钦，有关县(区)和市直部门主要负责同志参加学习考察;宁德市领导缪绍炜、吴允明分段陪同。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>239</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到成都绵阳学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202303/t20230329_1836669.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['正值全省上下深入学习贯彻党的二十届二中全会和全国两会精神，坚定以中国式现代化引领四川现代化建设的关键时刻，3月26日至27日，宜宾市党政代表团到成都市、绵阳市学习考察，学发展之道、取开拓之经、谋合作之计。', '省委常委、成都市委书记施小琳出席座谈会;省委常委、绵阳市委书记曹立军分段参加。成都市委副书记、市长王凤朝，市人大常委会主任包惠，市政协主席张剡，市委副书记陈彦夫;绵阳市委副书记、市长李云，市政协主席李亚莲，市委副书记王华蓉分段陪同。宜宾市委书记方存好，市委副书记、市长廖文彬，市人大常委会主任陈政，市政协主席谢杰，市委副书记曾令举参加学习考察。', '近年来，成都坚定以习近平新时代中国特色社会主义思想为指导，全面落实党中央、国务院和省委、省政府决策部署，全力以赴拼经济搞建设，深入推进“三个做优做强”、产业“建圈强链”、“四大结构”优化调整、智慧蓉城建设等重点工作，充分展现了把握“国之大者”、服务国家战略全局和着眼“省之要事”、肩负极核主干责任的政治担当，为全省作出了先锋表率，为全国作出了高质量发展的担当示范。在成都期间，宜宾市党政代表团来到通威太阳能(金堂)有限公司、东安湖体育公园(世界大运公园)，考察城市规划、产业发展等工作，认真学习成都改革创新的先进经验，并参加了长江上游成宜国际物流园项目开工仪式。', '施小琳在会见时说，当前，成都正深入学习贯彻党的二十大和全国两会精神，全面落实党中央、国务院和省委、省政府决策部署，抢抓成渝地区双城经济圈建设等重大战略机遇，统筹发展和安全，聚焦高质量发展主题，大力实施产业“建圈强链”，有效提振消费扩大内需，加快促进科技创新成果就地转化，深入实施幸福美好生活十大工程，全力筹备大运会、世界科幻大会等国际赛会活动，努力打造新时代更高水平“天府粮仓”成都片区，推动经济实现质的有效提升和量的合理增长。近年来，宜宾经济社会发展取得了长足进步，特别是在产业转型升级、重大项目招引、科创资源集聚等方面探索出许多好的经验做法，值得成都学习借鉴。希望双方共享发展经验，发挥各自优势，找准工作结合点，加强联动合作，共同推动“四化同步、城乡融合、五区共兴”战略部署落地落实。', '方存好说，近年来，成都深入推进产业“建圈强链”、“四大结构”优化调整等重点工作，人民生活更加安逸，经济发展更加均衡，产业“建圈强链”取得长足发展，对周边的辐射引领作用不断提升，为中国式现代化提供了成都样板。此次宜宾市党政代表团来成都参观学习，看到了好做法、学到了好经验，感受到了成都的产业发展之美、城市建设之美、生态宜居之美。当前，宜宾紧紧围绕省委战略部署，正全力打造世界级优质白酒产业集群、全球一流动力电池产业集群、国家级晶硅光伏产业集群、全国同类城市领先的数字经济产业集群的“四大产业集群”，需要借力成都的辐射和引领。希望以此次学习考察为契机，进一步深化两市在工业、科技创新、现代物流、生产性服务业、应用场景打造、智能轨道交通等方面的合作，为奋力写好中国式现代化的四川篇章贡献更多力量。', '绵阳是党中央、国务院批准建设的中国唯一科技城，当前，绵阳市委、市政府正坚定以习近平新时代中国特色社会主义思想为指导，认真落实党的二十大和省委十二届二次全会精神，坚持创新引领，实施科技立市、产业强市、开放活市、人才兴市、生态美市“五市战略”，加快建设中国科技城，全力打造成渝副中心。在绵阳期间，宜宾市党政代表团来到绵阳城市规划展览馆、绵阳工业园、京东方光电科技有限公司、科技城直管区(高新区)光电产业园等地，考察学习绵阳市在城市规划、园区建设、产业发展、招商引资等方面的好经验、好做法。', '曹立军对宜宾市党政代表团一行来绵考察表示欢迎。曹立军说，党的二十大报告明确强调“促进区域协调发展”，并作出系列重大战略部署;省委十二届二次全会提出以“四化同步、城乡融合、五区共兴”为总抓手全面推进四川现代化建设，为我们强化区域协作提供了方向指引。当前，绵阳正紧扣高质量发展这个首要任务，坚持创新引领，实施“五市战略”，聚力抓好科技创新、产业发展、开放合作、人才引育、生态保护等各项工作，开启了以中国式现代化推进绵阳现代化建设的新篇章。近年来，宜宾坚持实心干事、科学作为，“一蓝一绿”产业迅速壮大，动力电池、晶硅光伏和数字经济破圈成链、集聚成势，干部群众上下齐心、拼搏奋进，各项工作展现出新气象，值得学习借鉴。希望两地充分发挥自身优势，在科技创新方面协同发力、在产业发展方面携手共进、在生态治理方面互学互鉴，推动双方合作向更高层次、更高水平迈进，努力为全省发展大局作出更大贡献。', '开启了以中国式现代化推进绵阳现代化建设的新篇章。近年来，宜宾坚持实心干事、科学作为，“一蓝一绿”产业迅速壮大，动力电池、晶硅光伏和数字经济破圈成链、集聚成势，干部群众上下齐心、拼搏奋进，各项工作展现出新气象，值得学习借鉴。希望两地充分发挥自身优势，在科技创新方面协同发力、在产业发展方面携手共进、在生态治理方面互学互鉴，推动双方合作向更高层次、更高水平迈进，努力为全省发展大局作出更大贡献。', '方存好向绵阳经济社会发展取得的成绩表示祝贺。方存好说，绵阳作为党中央、国务院批准建设的中国唯一科技城，科技创新、经济社会发展等方面一直走在全省前列。近年来，两地加强合作结下了深厚的友谊，此次宜宾市党政代表团来到绵阳学习考察，看到了绵阳经济社会发展取得的一系列丰硕成果，真切地感受到绵阳在产业发展、园区提质、人才引进、科技创新等方面的蓬勃态势，为宜宾高质量发展提供了样板和参考。当前，借助成渝地区双城经济圈建设战略的加快实施，省委提出“四化同步、城乡融合、五区共兴”战略部署，希望两地在竞相发展的同时，发挥各自优势，在高质量发展道路上相互赋能、共创未来。', '宜宾市领导李静、刘晓卫、郑雷、袁华兵、何永宏、李翔、黄金盛、薛庆、华淑蕊、雷涛、罗春涛，五粮液集团公司董事长曾从钦参加学习考察。成都市领导刘筱柳、杜海波、吴皓，绵阳市领导唐浪生、黄朝阳、姚永红、代顺兴、刘海昌、周琳陪同。(记者 何川 秦莉萍)']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>239</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>廖文彬率队赴重庆市考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202405/t20240509_1984062.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月8日，市委副书记、市长廖文彬率队赴重庆市考察学习。重庆市江北区委副书记、区长陶世祥，沙坪坝区委常委、副区长户邑分段陪同。', '在长安汽车全球研发中心，廖文彬一行详细了解了长安汽车的历史沿革、当前发展状况和未来规划，并与长安汽车副总裁王辉等座谈交流。廖文彬说，长安汽车作为知名民族汽车头部企业，自去年时代长安一期在宜落地以来，大家双向奔赴、同频共振，推动动力电池合作项目在宜宾落地生根、蓬勃发展。廖文彬表示，近年来，宜宾坚定贯彻习近平总书记对四川、对宜宾工作系列重要指示精神，紧扣省委、省政府赋予的“全省生态优先绿色低碳发展先行区”发展定位，依托长安汽车、宁德时代等龙头企业，抢抓成渝地区双城经济圈建设、全球新能源汽车市场快速增长等历史机遇，全力发展动力电池、新能源汽车等产业，已初步形成动力电池全产业链条，发展前景十分广阔。希望双方继续深化沟通交流，加快推进合作项目建设，协同推动更高水平、更宽领域、更深层次的务实合作，努力实现互利共赢、共同发展。', '在江北区城市运行和治理中心，廖文彬一行认真聆听了数字化城市运行和治理情况介绍、观看了系统应用演示。廖文彬指出，重庆市在数字化城市建设上经验丰富、成效显著，宜宾要认真学习借鉴重庆在数字化城市运行和治理方面的先进经验，紧跟数字化变革机遇，依托先进管理平台，摸清家底，整合资源，进一步提升城市科学化、精细化、智能化管理水平，更好地服务宜宾经济社会高质量发展。', '在渝期间，廖文彬一行还先后前往重庆国际物流枢纽园区、重庆内陆国际物流枢纽展示中心、重庆赛力斯技术有限公司等地，进行了实地考察。', '市委常委、三江新区（临港经开区）党工委书记何永宏参加活动。（宜宾融媒记者 王宇 郭晓娟 曹江）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>239</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>筠连县考察组赴西安学习考察暨招商引资</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202104/t20210421_1449669.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['4月16日—17日，筠连县委副书记、县长谢晓丹，县政府党组成员、副县长聂莉带领考察组，围绕提升筠连对外开放水平和招商引资实效，到西安食品产业园考察学习食品全产业链发展的先进经验和做法，考察部分企业，开展商务对接与洽谈活动，并举办筠连县招商恳谈会（西安专场）。', '在西安食品产业园，考察组先后参观学习了陕西伊利乳业有限责任公司、西安永和豆浆食品有限责任公司等食品生产企业，并与西安蓝田县政府、西安食品产业园召开交流座谈会。座谈会上，就园区总体规划布局、食品产业发展、招商引资、政策优惠、项目引进等方面工作进行了深入交流。', '谢晓丹表示，通过参观考察，深刻感受到了食品产业对地方经济、劳动就业等方面的带动作用，学习到了先进的食品生产、市场运营等经验和做法，为筠连县食品产业发展提供了宝贵经验。谢晓丹要求，要以蓝田县为标杆，认真学习借鉴其在食品产业发展方面的先进经验和做法，寻找差距，认真总结，调整工作思路，加大工作力度，切实把考察学习的成果转化为干事创业的动力，加快筠连食品产业发展，助推企业转型发展。', '在西安高科电气科技有限公司、百合居装饰集团等企业，考察组一行通过边走边看、边听边议对企业主营业务、生产车间、产品展示、企业文化等进行了参观学习，详细了解了企业发展情况，就相关项目进行了对接与洽谈。', '4月17日，上午，筠连县产业招商恳谈会（西安专场）在西安广成酒店会议室召开。在陕西发展的16家企业参加。会上，谢晓丹代表筠连县作了招商推介，向与会企业全方位的展现了筠连经济社会发展新面貌，集中展现了筠连县在资源、交通、政策等方面优势，阐述了筠连县在招商引资方面的相关扶持政策。各企业家结合自身特点和筠连县实情，积极为筠连的发展献言献策，双方就招商引资、项目建设、县域经济高质量发展等方面进行了深入交流，部分企业家表达到筠实地考察投资项目的意愿。县政府副县长聂莉主持会议。', '筠连经开区管委会、县经信商务科技局、县市场监管局、县经济合作外事局、县城市投资有限公司等部门（单位）负责人参加考察。(郑杰)']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>239</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到遵义市学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202212/t20221210_1800126.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为深入学习贯彻落实党的二十大和省委十二届二次全会精神，学习先进经验、深化交流合作，加快建设四川南向开放枢纽门户，在新起点、新征程上携手共创美好未来，12月8日至9日，市委书记方存好，市委副书记、市长廖文彬率宜宾市党政代表团到贵州省遵义市学习考察。贵州省委常委、遵义市委书记李睿，市委副书记、市长黄伟，市人大常委会主任何薇，市政协主席汪海波，市委副书记王宏陪同学习考察。宜宾市人大常委会主任陈政、市政协主席谢杰、市委副书记曾令举参加学习考察。', '遵义是红色圣地、革命老区。当前，遵义正深入学习宣传贯彻党的二十大精神，全面落实习近平总书记视察贵州重要讲话精神，坚持以高质量发展统揽全局，坚定不移实施围绕“四新”主攻“四化”主战略，努力实现“四区一高地”主定位，加快建设省域副中心，与贵阳唱好“双城记”，与贵阳毕节打造“金三角”，奋力谱写全面建设社会主义现代化遵义新篇章。', '1935年，彪炳史册的遵义会议召开，中国革命从这里开始伟大转折，从此走向一个又一个新的胜利。在遵义会议纪念馆，党政代表团一行参观了会址主楼、陈列馆等，在一张张图片图表和一个个实物模型、模拟场景前，不时驻足停留，认真听取讲解，深切缅怀革命先烈，回顾光辉革命历史，重温中国共产党波澜壮阔的奋斗历程。党政代表团成员纷纷表示，在深入学习贯彻党的二十大精神之际，来到遵义会议纪念馆参观，让大家深受教育，真切感悟到共产党人为争取人民解放、民族独立而艰苦奋斗和为取得民族复兴、国家富强而坚持不懈的精神，更加坚定了为党和人民事业奋斗终身的信念。', '在贵州茅台酒股份有限公司，党政代表团一行前往中国酒文化城、制酒车间、酒库、包装车间等地参观考察，深入了解茅台酒生产工艺和国酒文化，对茅台酒深厚的文化底蕴和传统的酿造工艺表现出浓厚兴趣，并对茅台集团推动创新发展、革新经营理念、严控产品质量等做法表示赞叹。方存好表示，茅台是香飘世界的中国名片，具有悠久的酿造历史、独特的酿造工艺和深厚的酿造文化。茅台和五粮液同为中国优质白酒的典型代表，希望两企业深化交流合作，携手打造中国优质白酒产区集群，共同擦亮中国优质白酒名片，进一步引领和推动中国酒业实现高质量发展。', '学习考察期间，党政代表团一行还先后前往贵州中烟工业有限公司遵义卷烟厂、贵州珍酒有限公司等地，实地了解遵义产业发展、园区建设等情况。方存好指出，遵义和宜宾民俗相通、人文相亲，是好邻居、好伙伴、好朋友，近年来，两地加强合作结下了深厚的友谊。此次学习考察，目的就是学习先进、深化合作，希望遵义和宜宾在党的二十大精神指引下，以此次学习考察为新起点，在全面建设社会主义现代化国家新征程中，进一步建立健全互访机制，在产业发展、文化旅游、生态建设等方面强化战略对接、提升合作水平。', '边学边看边思考。此次学习考察，让宜宾市党政代表团一行收获颇丰。方存好要求，要牢固树立生态优先、绿色发展理念，结合宜宾实际，认真总结学习到的好经验、好做法，进一步探索生态价值向经济价值转化的实现路径，将生态文明建设和产业发展有机结合，着力推动宜宾经济社会实现高质量发展。', '宜宾市领导刘晓卫、陶学周、薛庆，五粮液集团公司董事长曾从钦参加学习考察;遵义市领导刘承东、向承强、李旭，贵州茅台酒股份有限公司董事长丁雄军陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>239</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>宜宾市两海示范区赴阆中市华南文旅集团学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-04-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202004/t20200415_1263660.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['4月13-14日，市委常委、政法委书记、“两海”示范区党工委书记陈扬杰带队赴阆中市华南文旅集团考察阆中古城运营管理模式、5A创建、文旅产业夜间沉浸式演艺、文旅融合提升等项目。', '在阆中市华南文旅集团董事长杨彩虎的陪同下，考察组一行先后到庞门学院、花间堂、李家大院等精品民宿，新阆优品、阆风物等主题文创店及西城1966阆中古城创意产业园等地进行参观考察，并观看了南津关实景演出，感受了一场丰富的文化盛宴。考察组一行深入了解了阆中古城文旅融合提升、景区管理、项目招商、节目打造等方面的情况，为蜀南竹海5A创建提供了实践经验。', '考察结束后，双方随即进行座谈，围绕阆中古城5A创建、景区规划布局、古城管理运行机制、阆中古城文化(演艺)项目打造、景区文旅融合等方面开展深入交流。考察组对阆中市华南文旅集团的热情接待和经验分享表示衷心感谢，对阆中古城旅游发展给予高度评价。陈扬杰表示，阆中和宜宾两座城市都拥有灿烂的历史文化，文化是旅游的灵魂，而宜宾的文旅产业发展和经济发展极不匹配。我们需要奋起直追，迅速完成“规划体系、交通体系、产业体系”建设，补齐“缺优质产品供给、缺深度文化挖掘、缺品牌迭加、缺特色体育赛事”四大短板，精准发力，助推宜宾文旅产业发展。经过深入交流，双方达成以下共识:一是提前谋划一场特色沉浸式实景演艺，为“两海”量身定做一场能留住游客的文化盛宴;二是多维度拓宽合作渠道，在蜀南竹海5A创建上深度合作;三是华南文旅集团成立工作协调小组，近期将组织专人到“两海”深入了解景区情况。', '通过此次实地考察，“两海”示范区对阆中古城文旅产业发展、景区运营管理、项目打造等方面有了更加全面的了解，为“两海”示范区与阆中市华南文旅集团的进一步合作奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>239</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>宜宾把考察学习转化为推动律师行业发展的动力</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/qxbm/qxdt/201908/t20190830_1117751.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['8月22日至23日，宜宾市司法局党委书记、局长李勤，市律师行业党委副书记吴大庆带领临港分局负责人以及宜宾宏成等六家律师事务所主任一行先后赴国浩律师(成都)事务所、四川发现律师事务所和四川明炬律师事务所三家大型律师事务所进行考察学习，并与国浩律师(成都)事务所签订了战略合作协议。', '22日上午，考察团一行首先来到国浩律师(成都)事务所，国浩律师(成都)事务所是一家注册律师达200余人的大型律师事务所，律师业务涵盖了“一带一路”、自贸区及资本市场法律服务等多个领域，其“一个核心、二个引领、三个促进、四个注入”的党建工作方法多次在全国全省作经验交流。省律协副会长、国浩集团律师事务所高级合伙人李世亮对李勤局长一行的到来表示了热烈欢迎，并简要介绍了律所在近10年来的发展背景和发展思路，共同见证了宜宾市律师协会与国浩律师(成都)事务所签订了“一带一路”、自贸区、资本市场法律服务战略合作协议。', '协议的签订是宜宾市律师协会第一次与大所强所的战略合作，合作内容包括了业务指导、人才培训、涉外法律服务业务等多个方面，必将有力促进我市律师行业的健康发展，助力我市全力打造川南法律服务高地。', '22日下午，结束完国浩(成都)律师事务所的考察学习，李勤局长一行又马不停蹄来到四川发现律师事务所进行考察学习。四川发现律师事务所是一家注重品牌文化建设的优秀律师事务所，律所全力打造的“发现书屋”实现了将法治文化与律所品牌的深度融合，在较短时间内便实现了业绩破亿元的突破，是律师行业通过品牌建设实现业务拓展的优秀典范。', '23日上午，考察团又来到四川明炬律师事务所，明炬律师事务所位于成都核心区域的环球中心，办公面积达到了近3000平米，是一家合并了成都近30余家律师事务所全力打造的“律所航空母舰”，明炬律师事务所极富创新的发展模式和律师参与征地拆迁的第三方司法征迁模式在全省乃至全国都走在了前列。', '2天的时间，3家优秀律师事务所，“开阔了视野、转变了观念、找到了差距、坚定了信心。倍感震撼，不虚此行!”这是考察团成员共同的感受。李勤局长指出，收获和感受是初步的，还只是思想认识和精神层面上的，考察的重点是要把先进经验学到位，学以致用、用以促学，全市律师行业要进一步深化和拓展，要以更加昂扬的精神状态，更加有效的办法举措，更加务实的工作作风，跳出宜宾看宜宾，立足川南看宜宾，融入全省看宜宾，努力实现全市律师行业的跨越发展。', '学经验、找差距，明思路，是这次考察学习的目的所在。李勤局长强调，这次的考察学习，是一次开阔眼界的学习之行，是一次对照先进的创新之行，是一次砥砺前行的奋进之行，要将学习考察的成果及时转化到促进全市律师工作高质高效发展上来，要认真梳理提炼三家律师所的先进理念和特色做法，形成考察调研成果汇报;要对标先进，检视自身，认真研究，拿出实质举措，加快做大做强做优全市律师行业的步伐;要组织全市律师所学习先进的办所理念和管理经验，进一步解放思想，转变观念，坚定不移走规模化、专业化、精品化发展路子;要教育广大律师学习先进，审视自己，加倍努力，加大青年律师的培训力度，着力培养涉外律师人才和新兴领域服务人才，促进更多青年律师脱颖而出，推动全市律师工作加快发展，为宜宾加快建成全省经济副中心发挥律师行业的新作为、新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>239</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到南充市学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202011/t20201111_1378552.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['为认真贯彻落实党的十九届五中全会精神、省委常委会(扩大)会议精神，深入落实省委“一干多支、五区协同”发展战略，11月10日，宜宾市党政代表团到南充市学习考察。市委书记刘中伯，市人大常委会主任陆振华，市政协主席吕晓莉参加。南充市委书记宋朝华，市政协主席潘国华陪同。', '考察中，党政代表团一行来到吉利新能源商用车研发生产基地、黄金江岸公园、川东北金融中心、三环电子有限公司七期项目、中科九微科技有限公司、上中坝湿地公园、北湖公园，学习考察南充市在新能源汽车产业发展、现代金融业培育发展、电子信息产业发展、半导体产业培育发展、临江新区规划建设、城市公园建设改造提升、嘉陵江湿地保护与开发等方面的情况，深刻感受到南充在产业发展、城市建设、脱贫攻坚、生态环保等方面的新理念、高起点、大手笔，许多好经验好做法值得宜宾学习借鉴。刘中伯要求党政代表团成员要认真学习南充市在产业发展、城市建设、脱贫攻坚、生态环保等方面的好经验、好做法，切实把学习考察成果转化为推动工作的强大动力和具体举措，加快推进宜宾经济社会发展。', '刘中伯对南充市近年来经济社会发展取得的显著成绩表示祝贺，向南充市一直以来对宜宾的支持表示衷心感谢。刘中伯说，在深入贯彻党的十九届五中全会精神，落实省委“一干多支、五区协同”发展战略的关键时刻，宜宾市党政代表团第三次来到南充学习考察，再次深切地感受到南充市抢抓机遇推动工作的大格局、大气魄、大手笔，全市经济社会发展取得了巨大成就，让党政代表团一行十分敬佩。', '刘中伯表示，宜宾与南充同为成渝地区双城经济圈南北两翼区域中心城市，兄弟情深、遥相呼应，面临共同的发展机遇，拥有广阔的合作空间。真诚希望与南充一道，共同融入成渝地区双城经济圈建设，进一步深化两市的全方位合作，促进双方共嬴发展。衷心祝愿南充的明天越来越美好。', '宋朝华对宜宾党政代表团到南充市学习考察表示热烈欢迎。宋朝华说，近年来，在省委、省政府坚强领导下，宜宾市在产业发展、城市建设、脱贫攻坚等方面取得了显著成绩，特别是无中生有建设大学城、发展新兴产业，走在了全省前列，经济社会发展中的许多宝贵经验值得南充学习借鉴。', '宋朝华表示，当前，南充正认真贯彻落实党的十九届五中全会精神，全力冲刺四季度，奋力保目标、夺取双胜利。希望两市之间进一步在更高层面、更多领域加强合作，进一步携手共同发展、共同繁荣。衷心祝愿宜宾未来发展越来越好，两市合作取得更加丰硕的成果。', '宜宾市领导唐浪生、张琦、张健参加学习考察。南充市领导黄春江、伍定、徐远火、陈有波陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>239</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>考察学习找差距对标先进促发展宜宾市组织开展民营企业家百千万工程赴百强民营企业党建联盟委员单位总部学习考察活动</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/bsfw/fwzx/qyfw/202303/t20230323_1834674.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['考察学习找差距 对标先进促发展 ——宜宾市组织开展民营企业家“百千万”工程赴百强民营企业党建联盟委员单位总部学习考察活动', '学习动力电池头部企业党建工作与生产经营相融互促经验，以及宁德时代文化建设、业务发展、技术创新等方面先进经验；', '考察深圳四川宜宾商会会员企业——深圳腾睿微电子科技有限公司，学习企业转型、自主创新、培育人才的经验做法；', '参加考察企业家纷纷表示，通过考察学习开阔了眼界、看到了差距、坚定了信心，将认真梳理、归纳总结宁德市、深圳市等民营企业的先进经验和做法，进一步重视党建与日常工作的结合、重视科技创新和人才培养，努力把民营企业做大做强，为宜宾高质量发展多做贡献。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>239</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>考察学习借鉴经验全力以赴办好中国创新挑战赛</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-07-23</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/qxbm/bmdt/201907/t20190723_1099677.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为了大力实施宜宾创新驱动发展战略，进一步破解智能终端、轨道交通、新材料、新能源、白酒产业、现代农业产业等产业、行业共性技术难题，促进科技成果转化，为推动区域创新驱动发展，努力建成全省经济副中心。今年，市委市政府决定申请承办第四届中国创新挑战赛。7月5日，国家科技部《关于举办第四届中国创新挑战赛的通知》(国科火发〔2019〕228号)正式批复我市举办第四届中国创新挑战赛。为不负重任，借鉴他山之石，办好这次创新挑战赛，7月15日，市科技局党组成员、副局长代德才带领成果转化科、市生产力促进中心(国家技术转移西南中心川南分中心)一行赴南充市进行专题工作考察学习。', '南充市近两年连续举办了第二届、第三届中国创新挑战赛，赛事活动得到了国家科技部的充分肯定，积累了丰富的经验。代德才一行到南充后，得到该市科技局和生产力促进中的热情接待，召开了座谈交流会、进行了办公条件实地考察。南充市科技局副局长柏正波及相关科室介绍了南充市前两届中国创新挑战赛的赛事举办情况，以及该项工作中应当抓住的关键环节和引起注意的重点问题;生产力促进中心交流了创新挑战赛的工作流程和第四届的工作进展情况。宜南双方还就赛事筹备组织阶段部分关键环节的难点问题进行了深入交流。代德才表示，此次考察学习收获颇丰，特别是在技术需求挖掘、解决方案征集及现场赛筹备等方面的做法启发了新思路。希望以此次交流活动为契机，双方加强沟通交流和信息共享，携手办好赛事活动，推动两市科技工作共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>239</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>凉山州党政代表团来宜学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019-08-06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201908/t20190806_1106113.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月4日—5日，省政协副主席、凉山州委书记林书成率凉山州党政代表团来宜学习考察。', '8月4日—5日，省政协副主席、凉山州委书记林书成率凉山州党政代表团来宜学习考察。市委书记刘中伯，市人大常委会主任陆振华，市政协主席吕晓莉，市委副书记黄河陪同。', '考察中，凉山州党政代表团一行先后来四川轻化工大学宜宾校区、西华大学宜宾校区、科技创新中心、智能终端产业园、宜宾汽车产业园、宜宾港、宜宾智能轨道交通等地，实地考察我市在产业发展、“双城”建设、交通枢纽建设等方面的思路、举措和成效，并在座谈会上就进一步加强两市合作进行深入交流。', '林书成说，宜宾与凉山州山水相连、人文相亲、经济相融，在长期的交往中，建立了良好的合作关系，结下了深厚的兄弟友谊。通过学习考察，宜宾市大手笔高标准推进“双城”建设，集群集约发展高端产业，创新机制体制优化投资环境，给凉山州党政代表团一行留下了深刻印象，让代表团成员深受教育、深受启发。特别感动的是，宜宾市在加快发展的同时始终不忘近邻，对凉山州经济社会发展尤其是脱贫攻坚工作给予了大力支持、无私帮助。凉山州将结合自身实际，进一步学习领会、消化吸收，把学习考察成果转化为推动工作的动力和举措，加快建设美丽幸福文明和谐新凉山。', '林书成表示，当前，在推动治蜀兴川再上新台阶的进程中，宜宾和凉山州作为川南经济区和攀西经济区的重要组成部分，既面临着共同的发展机遇，也肩负着共同的发展责任，更有着共同的发展利益。两地在市场需求、产业对接、资源整合等方面具有较强的互补性，在工业、交通、环保等领域有广阔的合作空间。希望两市州认真贯彻省委“一干多支、五区协同”“四向拓展、全域开放”发展战略，全面深入推动两地战略合作具体化、项目化、常态化，在脱贫攻坚、产业合作发展、交通基础建设、全面开放合作等方面继续深化合作，不断开创协同联动、共赢发展新局面。', '刘中伯代表市委、市人大常委会、市政府、市政协和全市人民向凉山州党政代表团来宜考察表示热烈欢迎，向凉山州在长宁“6·17”地震给予宜宾的支持帮助表示衷心感谢。刘中伯说，凉山州和宜宾的感情源远流长，自2013年签订战略合作协议以来，两地在党政交流、教育、旅游、医疗、产业、扶贫等方面开展了一系列务实合作，取得了显著成效。特别是长宁“6·17”地震发生后，凉山州委、州政府迅速向灾区捐款，充分展现了凉山州与宜宾市患难与共、风雨同舟的兄弟情谊。', '刘中伯表示，当前，宜宾正深入贯彻落实习近平总书记对四川工作系列重要指示精神和习近平总书记关于四川长宁6.0级地震重要指示精神，全力开展灾后恢复重建，加快建设全省经济副中心。随着国家“一带一路”倡议，新一轮西部大开发和省委“一干多支、五区协同”“四向拓展、全域开放”等战略的全面实施，凉山州和宜宾肩负共同历史使命、面临共同发展机遇。真诚期望两地原有的基础上进一步深化战略合作协议内容，在基础设施互联互通、产业发展、旅游发展、脱贫攻坚等方面进一步加强合作，共同推动省委、省政府决策部署落地落实，为治蜀兴川再上新台阶作出更大贡献。', '凉山州领导陈文、刘俊文、蒋刚、曾令举、杨卉参加学习考察。宜宾市领导谢杰、李敏、杨俊辉、赵浩宇、吴勇陪同。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>239</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到四川天府新区和成都高新区学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202004/t20200414_1263108.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['4月13日，宜宾市党政代表团到四川天府新区和成都高新区学习考察。考察期间，省委常委、成都市委书记范锐平，成都市委副书记、市长罗强会见了市委书记刘中伯，市委副书记、市长杜紫平一行，就深入推进成宜合作，支持宜宾加快融入成渝地区双城经济圈建设，在全省“一干多支、五区协同”发展战略中作出更大贡献进行深入交流。市委副书记黄河参加学习考察。成都市委常委、常务副市长谢瑞武，市委常委、成都高新区党工委书记方存好，四川天府新区管委会办公室常务副主任、天府新区成都党工委书记、管委会主任刘任远陪同。', '四川天府新区位于成都市南面，2014年1月获批全国第11个国家级新区，近年来，新区经济活跃度、社会关注度、区域标识度不断跃升，已形成组群布局、生态宜居的城市格局和高端引领、绿色低碳的产业雏形，经济总量在全国19个国家级新区中位居第5位。成都高新区是全国首批“创建世界高科技园区”试点园区之一、西部首个国家自主创新示范区、四川省全面创新改革试验区和自由贸易试验区核心区，已形成“一区四园”总体布局，正朝着建设国家高质量发展示范区和世界一流高科技园区的目标奋力迈进。', '学什么?怎么学?四川天府新区和成都高新区的哪些经验做法可以“为我所用”?在学习考察中，宜宾市党政代表团一行边看、边学、边思考，先后来到天府新区规划厅、天府总部商务区、成都规划馆、成都新经济活力区双创服务平台、成都高新综保区，在学习四川天府新区和成都高新区在规划理念、机构设置、产业发展、干部人才选拔、招商引资政策、平台运作、日常管理以及成都高新综保区运营等方面的先进经验和做法的同时，还不断与当地干部交流心得，以便更好地借鉴当地的发展模式，并结合实际创新运用到自身工作中。', '学习考察中，宜宾市党政代表团还分别与四川天府新区和成都高新区举行工作座谈会，就进一步深化合作展开深入交流。刘中伯说，成都是国家中心城市，是中国西部的经济中心、科技中心、金融中心。近年来，成都深入贯彻落实习近平总书记对四川工作系列重要指示精神，认真落实省委决策部署，胸怀大局、主动担当，自觉肩负“主干”使命，帮助支持、引领带动“多支”竞相发展，政治意识、大局意识、创新意识和务实作风都为宜宾树立了榜样。在省委、省政府的坚强领导下，自双方签署合作协议以来，宜宾始终把成都作为最坚强的后盾和最有力的支撑，紧紧依靠成都、依托成都、融入成都，在成都市委、市政府和各级各部门的关心帮助下，加快推进合作协议落地落实，成宜合作取得重要进展。', '刘中伯表示，希望四川天府新区充分发挥自身优势，在宜宾三江新区发展规划编制、产业发展、人才干部交流等方面给予宜宾大力支持和帮助;希望成都高新区与宜宾建立完善合作机制，在国家级高新区建设、综保区建设等方面给予宜宾指导和帮助，在科技成果转化、干部人才交流等方面给予宜宾大力支持。', '在学习考察后的总结会上，刘中伯指出，此次到成都学习考察，主要目的就是通过借鉴、复制、创新，使四川天府新区和成都高新区在发展中的好经验、好做法在宜宾落地，应用到自身工作中，针对性地解决宜宾发展中存在的困难和问题，助推宜宾更好地融入成渝地区双城经济圈发展中，实现全市经济社会高质量发展。', '刘中伯强调，宜宾各级各部门要深入贯彻落实习近平总书记对四川工作系列重要指示精神，认真思考此次学习到底学到了什么，自身工作中还存在哪些差距，明确今后究竟该怎么办。要抢抓成渝地区双城经济圈发展机遇，紧紧依靠成都、依托成都、融入成都，发挥自身优势，不断深化与成都的合作，在成都的大力支持下将宜宾打造为成渝地区双城经济圈发展中的示范市;要学习成都在抓发展过程中的开放意识、工作胆识、精品意识和狠抓落实的精神，不断转变思想、更新观念，定实措施、务实推进各项工作;要进一步加强与四川天府新区和成都高新区的沟通对接，牢固树立生态发展、绿色发展理念，制定出站位高远、操作性强的整体发展规划，为宜宾三江新区、国家级高新区和综保区发展奠定坚实基础;要制定时间表、任务图，倒排工期、挂图作战，选派专业化、高素质人才开展工作，加快推进宜宾三江新区、国家级高新区和综保区各项工作，实现宜宾经济社会高质量发展。', '杜紫平说，来到四川天府新区和成都高新区学习考察感受颇深。四川天府新区在城市规划、城市建设、先进产业等方面的先进理念，精干、高效、统一的运营机制以及成都高新区在发展速度、质量、规划等方面，都非常值得宜宾学习。宜宾将进一步深化与成都在产业发展、基础设施建设、金融经济、科教事业等方面的合作，建立健全沟通对接机制，务实推进各项工作。', '杜紫平要求，宜宾各级各部门要认真学习成都在四川天府新区建设、成都高新区发展、综保区运营等方面的先进经验和做法，站在国家战略的高度，抢抓成渝地区双城经济圈发展机遇，加快推动落实成宜合作有关内容，尽快形成宜宾三江新区总体规划，推进综保区建设发展。', '交流座谈中，方存好表示，近年来，宜宾市委、市政府雷厉风行，大力度推进经济社会发展，城市建设、城市转型、产业发展等方面取得显著成效，宜宾干事创业的魄力和干劲值得成都高新区学习。成都高新区将按照“深化合作、扎实推进、取得实效”的导向，抢抓成渝地区双城经济圈发展机遇，围绕高新区和综保区两个平台，建立健全合作机制，与宜宾形成优势互补，在更多领域开展合作，确保双方合作更加深化、更加务实、取得实效。', '刘任远表示，近年来，宜宾坚持大格局、大视野、大动作，经济社会发展势头强劲，成绩令人瞩目，天府新区干部要学习宜宾干部站高谋远、谋定而动、科学作为的工作思维和工作能力。天府新区将继续深入践行“一干多支、五区协同”战略，落实成宜合作协议，进一步加强与宜宾在三江新区发展规划编制、产业发展和干部人才交流等领域的合作，并建立工作机制，共抓成渝地区双城经济圈发展机遇，推动合作落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>239</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到攀枝花市学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-11-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201911/t20191121_1156223.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['11月20日，宜宾市党政代表团到攀枝花市学习考察。市委书记刘中伯，市委副书记、市长杜紫平，市人大常委会主任陆振华，市政协主席吕晓莉参加。攀枝花市委书记贾瑞云，市委副书记、市长王波，市委副书记虞平陪同。', '攀枝花市位于川西南、滇西北结合部，是全国唯一以花命名的城市，享有“花是一座城，城是一朵花”的美誉。当前，攀枝花市正紧紧围绕省委新定位新要求，全力做好钒钛、阳光“两篇文章”，扎实推进钒钛新城和攀西科技城建设，着力打造四川新的经济增长点，加快建设川西南、滇西北区域中心城市和四川南向开放门户，全面推动攀枝花高质量发展，奋力打“英雄攀枝花·阳光康养地”。', '学习考察中，党政代表团先后来到攀钢钛业公司海绵钛厂、钒钛高新区展示厅、攀枝花市康养产业展示馆、普达康养体验中心、普达颐养护理院等地参观学习，通过听取介绍、深入交流，详细了解攀枝花市钒钛产业、康养产业的发展情况，认真学习攀枝花市在产业发展中的好经验、好做法。刘中伯指出，攀枝花市在产业发展中每个区域都有不同的特色，值得宜宾学习借鉴。党政代表团各成员要进一步转变观念、解放思想，在学习考察中边看、边学、边思考，认真学习攀枝花市在产业发展中的好经验、好做法，结合自身实际思考宜宾在产业发展，特别是康养产业发展的思路和举措，真正实现一、二、三产业融合发展，助推宜宾高质量发展。', '市领导唐浪生、李学焦、张平、陈扬杰参加学习考察。攀枝花市领导吴成钢、林建国陪同。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>239</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团在雅安市学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-11-24</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201911/t20191124_1157007.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['11月22日，宜宾市党政代表团赴雅安市学习考察。市委书记刘中伯，市委副书记、市长杜紫平，市人大常委会主任陆振华，市政协主席吕晓莉参加。雅安市委书记兰开驰，市委副书记、市长邹瑾，市人大常委会主任李伊林，市政协主席杨承一陪同。', '学习考察中，党政代表团一行先后来到雅安市荥经县龙苍沟发展村旅游度假区阳坪片区森林康养项目、中国藏茶城、川西大数据中心等地，详细了解雅安市森林康养度假产业、藏茶产业发展及“藏茶城”建设、大数据产业及园区建设等情况。刘中伯指出，党政代表团各成员要认真学习雅安市在城市建设、文化旅游、产业发展等方面的好经验、好做法。要加快编制宜宾文旅产业、康养产业的发展规划，并加大招商引资力度，招引有实力的行业龙头企业到宜宾来发展;要将宜宾的文化元素充分融入城市建设中，规划打造一批体现宜宾文化元素的市场、公园、广场等，以此带动周边区域共同发展;要加快推进宜宾智慧城市建设，切实增强城市的科学管理能力。', '在雅安市，党政代表团一行还参加了宜宾港·雅安无水港揭牌仪式。为充分发挥宜宾港口航运优势和雅安资源禀赋优势，宜宾港会同上海港、重庆港与雅安交建集团合作共建宜宾港·雅安无水港。无水港的设立，将使川滇藏腹地东向有效融入长江经济带，南向融入西部陆海新通道，北向融入陆上丝绸之路经济带，加快形成西部公铁水多式联运大通道体系。同时，也将有效助推雅安腹地生产型企业降本增效，真正成为康藏地区依托长江黄金水道，通江达海、走向世界的门户。', '市领导李学焦、杨俊辉、张平、陈扬杰参加学习考察，雅安市领导卿刚、王冬林、王双全、苟乙权陪同。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>239</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>吕晓莉带队到绵阳市考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/201904/t20190428_964170.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['4月25日至26日，市政协党组书记、主席吕晓莉带队到绵阳市考察学习经济社会发展、军民融合发展和政协工作及政协机关管理经验。绵阳市政协党组书记、主席张锦明，绵阳市政协党组成员、副主席赵黎陪同考察学习并出席座谈会。', '吕晓莉一行先后前往了绵阳科技城科技创新服务中心、九洲集团、集中发展区科技之心、绵阳京东方光电科技有限公司和绵阳市政协机关，详细考察学习了解绵阳市科技城建设、经济社会发展、科技创新、军民融合发展、政协工作及政协机关管理等方面的好经验、好做法。', '在26日举行的座谈会上，两地政协就经济社会发展、军民融合发展、政协工作及政协机关管理等方面进行了交流座谈。吕晓莉说，绵阳和宜宾有许多共同的地方，都是省委确定的创建全省经济副中心的七个城市之一，都把军民融合产业发展作为经济发展的一个重要内容和方向。绵阳市在军民融合产业发展方面的宝贵经验和政协工作的特色亮点，让我们深受启发，收获很大。要站高谋远，认真学习绵阳军民融合发展的先进经验，高规格管理、高标准规划、高速度推进、高质量保障;要发挥优势，协同助推两市军民融合发展，建议围绕军民融合产业发展协同开展调研，围绕军民融合产业发展协同提交提案和反映社情民意，共同助推两市在军民融合方面的深度合作;要加强学习交流，共同推进两地政协工作高质量发展。', '张锦明对今年一季度宜宾市取得地区生产总值(GDP)增速居全省第1位的成绩表示祝贺，同时也向宜宾政协学习，加强与宜宾市政协的对接联系，携手共进，共同为军民融合发展营造更好的政策环境、社会环境和发展环境，为增进两市人民福祉作出新的更大贡献。', '绵阳市政协党组成员、秘书长毛一兵，绵阳市政协副秘书长及相关委室主任，绵阳市委军民融合办、市发改委相关同志参加座谈会。(记者 邓烨)']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>239</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>吕晓莉带队到成都市考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-04-17</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/201904/t20190417_948970.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['4月15日至16日，市政协党组书记、主席吕晓莉带队到成都市就成宜合作和政协工作进行考察学习。成都市政协党组副书记、副主席刘仆出席座谈会。', '吕晓莉一行先后前往天府新区规划展示厅、兴隆湖湿地公园、“天府·高新视窗”“中国·欧洲中心”详细考察学习了解城市建设、产业发展、口岸物流、乡村旅游等方面的好经验、好做法。', '随后，两地政协就推动成宜合作进行了交流座谈。吕晓莉指出，深化成宜合作是省委新战略赋予成宜两市的重要使命和责任，宜宾市委提出力争2021年全市经济总量达到3000亿元、建成全省经济副中心，努力在全省“一干多支”发展战略中构筑“宜宾强支”的奋斗目标，成都市的帮助和支持显得尤为重要;政协要充分发挥好履职优势，全力助推成宜合作。建议两地政协围绕成宜合作协同开展调研，协同提交提案和反映社情民意，协同视察推进成宜合作的重点内容;两地政协要全面合作共建、协同发展，让成宜政协合作成为成宜合作的亮点。建议建立两地政协定期走访制度，建立调研协同配合机制，建立政协委员和机关干部联合培训机制，建立政协委员交流合作机制，共同助推两地合作迈上更深的层次。', '刘仆表示，成都市政协将继续推动已签协议项目的落实，推动已经落实的项目加快推进，认真研究做好对接工作，助推项目协作和深化。', '宜宾市政协党组成员、秘书长童叔刚就宜宾市政协工作开展情况作经验交流。宜宾政协研究室、提案委、委员联络委，市发改委、商务局、文化广播电视和旅游局、翠屏区、筠连县政协主要负责人等参加考察学习。成都市政协副秘书长及相关科室主任，成都市发改委、口岸物流办、市文旅局相关同志参加座谈。(记者 秦莉萍)']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>239</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>吕晓莉带队到泸州市考察学习整合优势错位发展协作互补</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-03-18</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/201903/t20190318_815521.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['3月14日至15日，市政协党组书记、主席吕晓莉带队到泸州市考察学习川南经济区一体化发展和政协工作经验。泸州市政协党组书记、主席田亚东陪同考察学习。', '两天的时间里，吕晓莉一行分别前往中国(四川)自由贸易试验区川南临港片区、西南商贸城、西南医疗健康城、高新区华为大数据中心、驰腾科技、泸州港国际集装箱码头、酒业集中发展区、尧坝古镇和扶贫集中安置点、泸州市政协机关和市诗书画院，详细考察学习了解泸州城市建设、智能终端产业、医疗康养、大数据建设、港口建设、旅游服务、政协党建等方面的好经验、好做法。', '就川南经济区一体化发展，在昨(15)日举行的交流座谈会上，吕晓莉指出，围绕中心、服务大局，要切实在推进川南经济区基础设施、产业布局、城乡发展、市场体系、公共服务、生态文明建设一体化的“六个一体化”建设上，整合优势、错位发展、协作互补，构建起沿江的产业群、城镇群、港口群;要推动全方位的对外开放，加快融入国际陆海贸易新通道，打通铁路对外大通道，畅通长江黄金水道;要打好防范化解重大风险、精准脱贫、污染防治三大攻坚战。同时，吕晓莉建议，宜宾、泸州还可以就有关问题开展同题调研，互通有无，助力川南经济区一体化发展。', '田亚东说，趁着川南经济区一体化发展的东风，政协委员们要在建言资政和凝聚共识上双向发力，积极助推川南经济一体化。他指出，一是要提高政治站位，认真贯彻省委“一干多支、五区协同”的重大战略部署，要“跳出川南看川南”;二是要加强沟通交流，求同存异，协同推进川南“六个一体化”建设;三是要加强调研和民主监督，切实帮助协调解决川南经济一体化建设当中存在的问题和困难，发挥好政协优势和作用。', '宜宾市政协党组成员、秘书长童叔刚，市政协提案委、翠屏区、筠连县、屏山县政协主要负责人等参加考察学习。(记者 罗友莉)']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>239</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团赴自贡资阳乐山学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018-12-02</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201812/t20181203_211416.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为贯彻落实省委十一届三次全会精神，学习其他市在落实省委构建“一干多支、五区协同”区域发展新格局和“四向拓展、全域开放”立体全面开放新态势中的好经验、好做法，推动宜宾加快建成全省经济副中心。11月29日至30日，市委书记刘中伯，市委副书记、市长杜紫平率宜宾市党政代表团前往自贡、资阳、乐山三市学习考察。市人大常委会主任陆振华，市政协主席吕晓莉，市委副书记邓正权参加学习考察。自贡市委书记李刚，市委副书记、市长何树平，市人大常委会主任谭豹，市政协主席游开余;资阳市委书记陈吉明，市委副书记、代市长吴旭，市人大常委会主任王荣木，市政协主席陈莉萍，市委副书记段再青;乐山市委书记彭琳，市人大常委会主任赖淑芳，市政协主席易凡陪同考察。', '学什么?怎么学?三地的哪些经验做法可以“为我所用”?在两天的时间里，党政代表团一行边看、边学、边思考，在详细了解各地在城市建设、产业发展、乡村振兴、从严治党、旅游服务等方面的好经验、好做法的同时，还不断与当地干部交流心得，以便更好地借鉴各地的发展模式，并结合实际创新运用到自身工作中，推动宜宾实现高质量发展。', '自贡市作为四川唯一的全国老工业城市产业转型升级示范区，拥有1个国家级高新区、4个省级开发区、74个“国字号”“省字头”科技创新平台，是国家级新型工业化产业示范基地、国家新材料高新技术产业化基地、四川重点发展的通用航空产业聚集区。在自贡市学习考察期间，党政代表团一行先后现场参观了自贡航空产业园，自流井区荣边镇尖山乡村振兴示范区，华西能源工业股份有限公司，釜溪河流域综合治理及生态修复工程，详细了解了产业转型升级、乡村振兴示范区建设、河流综合治理及生态修复等相关情况。特别是近年来，自贡市委、市政府以航空产业破题老工业城市转型发展，整体推动产业转型、城市转型、社会转型，努力让自贡这座老工业城市早日实现振兴发展新局面的做法让宜宾市党政代表团成员耳目一新，感受到了自贡强劲的发展势头、美好的发展前景，在产业转型升级、乡村振兴、生态建设等方面取得的成绩、积累的经验，值得宜宾学习借鉴。', '在资阳市学习考察期间，党政代表团一行先后来到资阳市规划展示馆、资阳临空经济区、中国牙谷、四川天府口腔医学职业技术学院和科创园项目建设现场、城东新区成渝高铁站南广场等地学习考察，深入了解资阳城市规划建设、产业发展、园区建设及成资同城化发展等情况，对资阳经济社会发展取得的成绩及资阳未来发展战略设计给予由衷的赞叹和高度评价。资阳直接连接成都、重庆两个国家中心城市，是成渝经济区、成都平原经济区、环成渝经济圈的重要组成部分，历史文化底蕴深厚、区位优势明显、产业特色鲜明、发展前景广阔。当前，资阳正聚焦“成渝门户枢纽、临空新兴城市”发展定位，做好做足“成渝”和“临空”两篇文章，奋力推动新时代资阳发展新跨越，正成为成渝经济区中部最具生机与活力的新兴城市。', '“在接到群众反映的问题时，中心是怎么处理的?”“在打造景城一体时，资金来源是怎么解决的?”乐山是四川重要的工业城市、旅游大市。当前，乐山正在依托自身优势和发展定位，坚持壮大旅游主导产业，建设四川旅游首选地;坚持绿色生态优先发展，建设绿色转型示范市;坚持景区城区和山区融合发展，建设山水园林宜居城;坚持集中集约集聚发展，建设总部经济聚集区。党政代表团一行先后来到了乐山市“夜游三江”项目建设现场、乐山市心连心服务中心、永祥多晶硅项目、峨眉山智慧旅游中心等地，深入了解乐山市城市建设管理、从严治党、产业发展、旅游服务、大数据运行等方面的情况。在了解到峨眉山市通过全力做好文旅融合、景城一体、扩容提质、全域旅游“四篇文章”，推动峨眉山景区高质量发展时，党政代表团一行感触颇深，纷纷表示峨眉山市的做法为宜宾加快推进全域旅游提供了可借鉴的发展模式。', '学习考察结束后，刘中伯主持召开宜宾党政代表团学习考察总结会。近年来，市委多次组织党政代表团赴各地学习考察，其目的就是到各市(州)看一看、学一学、比一比，找准差距、学习经验、更新观念、推动发展。此次前往学习考察的自贡、资阳、乐山等市，在发展中都各有特色，各县(区)和市级各部门要认真地学习总结各地的好经验、好做法，通过借鉴、复制、创新，使各地的好经验、好做法在宜宾落地，应用到自身工作中，并有针对性地解决宜宾发展中存在的困难和问题，助推宜宾实现高质量发展。', '刘中伯强调，各县(区)和市级各部门要认真思考此次学习到底学到了什么，自身工作中还存在哪些差距，明确今后究竟该怎么办。要学习各地的发展理念，牢固树立生态发展、绿色发展理念，制定出站位高远、操作性强的整体发展规划;要学习各地的开放意识，不断转变思想、更新观念，扎实抓好对外开放和招商引资工作，以开放引进来推动宜宾发展;要学习各地抓工作的胆识和魄力，切实增强责任意识，敢于担当、敢于出政策，形成合力、找准措施，破解发展中的困难;要学习各地的精品意识，认真思考在宜宾发展过程中如何打造出更多精品;要学习各地狠抓落实的精神，各县(区)委书记要保持清晰思路、明确工作重点，定实措施、务实推进各项工作。同时，要突出重点进一步加大考核督查力度，做到半年一督察、年终一考核。', '杜紫平指出，通过此次学习考察，看到了自贡、资阳、乐山等市值得学习的好经验、好做法，也看到了宜宾与三市之间存在的差距。各县(区)和市级各部门要认真对标先进、查找不足、奋起直追，克服自满心理、克服畏难情绪、克服得过且过的行为，树立干就干好、干就干成一流的精神，树立功成一定有我、功成未必在我的境界，树立创新的思维和行动，千方百计把“产业发展双轮驱动”战略实施好，千方百计把城市规划、建设、管理好，千方百计把旅游发展好，千方百计把环境打造好，敢于担当、创新工作，为加快建成全省经济副中心作出应有的贡献。', '市领导唐浪生、李敏、邱东林、吴勇、王萍，翠屏区、叙州区、江安县、长宁县、高县、珙县、兴文县等县(区)委书记和市发改委、市财政局、市经信委等市级部门主要负责人参加学习考察。自贡、资阳、乐山相关市领导分别陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>239</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>刘中伯率队到海南自由贸易港学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202011/t20201102_1371696.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['10月29日至30日，市委书记刘中伯率队到海南自由贸易港学习考察，并与三亚市举行座谈，就推动双方深化合作进行交流。三亚市委副书记、代市长包洪文陪同。', '三亚中央商务区是海南自由贸易港建设的11个重点园区之一，规划面积442.5公顷，园区着力构建以总部经济、金融服务、现代商贸、邮轮游艇为主导，专业服务、文化休闲为支撑的“4+2”现代产业体系，致力于建设成为国际化的区域总部经济及中央商务集聚区、国际旅游消费中心引领区。海南博鳌乐城国际医疗旅游先行区于2013年2月28日经国务院批复设立，以“三地六中心”为总体发展定位，试点发展特许医疗、健康管理、照护康复、医美抗衰等国际医疗旅游相关产业，旨在聚集国际高端医疗旅游服务和国际前沿医药科技成果，创建国际化医疗技术服务产业聚集区。', '刘中伯一行来到三亚中央商务区、海南博鳌乐城国际医疗旅游先行区等地，边走边看、边看边问，考察学习当地在规划理念、机构设置、产业发展、人才引进、招商引资政策、平台运作、日常管理等方面的先进经验和做法。特别是在了解到当地不断创新体制机制、简化行政审批手续、优化营商环境等方面有许多值得借鉴和学习的经验做法时，刘中伯要求宜宾市有关部门一定要认真学习借鉴，将当地的好经验好做法结合实际创新运用到自身工作中，针对性地解决宜宾发展中存在的困难和问题，实现全市经济社会高质量发展。', '在与三亚市座谈时，刘中伯说，宜宾经济基础扎实、区位优势独特，铁、公、水、空立体交通优势明显。当前，宜宾正按照省委、省政府决策部署，抢抓成渝地区双城经济圈建设和全省首个省级新区的重大机遇，深入实施“产业发展双轮驱动”战略，大力推进大学城和科创城建设，全市经济社会实现高质量发展，未来发展前景广阔。', '刘中伯表示，三亚与宜宾合作潜力巨大，此次前来主要是学习当地的先进经验和做法。希望双方充分发挥自身优势、加强沟通对接，寻找在更多领域深化合作的着力点，并签订战略合作协议开展全面合作，推动合作项目落地落实，实现两市经济社会共赢发展。', '三亚市副市长吴海峰表示，通过座谈对接对宜宾有了更深的了解。三亚将进一步加强与宜宾的沟通对接，在旅游合作、产业发展、政策协调、综保区合作等多方面开展务实合作，着力推动两市经济社会发展。', '市委常委、常务副市长赵浩宇，市委常委、宣传部部长李静，五粮液集团公司总经理、股份公司董事长曾从钦参加考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>239</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到内江市学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020-10-21</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202010/t20201021_1365928.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实全省“一干多支、五区协同”发展战略和川南经济区工作座谈会精神，共同抢抓成渝地区双城经济圈建设重大机遇，为川南经济区一体化发展作出积极贡献，昨(20)日，宜宾市党政代表团前往内江市学习考察。市委书记刘中伯，市委副书记、市长杜紫平，市人大常委会主任陆振华参加。内江市委书记马波陪同。', '内江地处成渝城市群发展带、云贵——陕甘南北大通道发展轴、川南经济区“一带一轴一区”重要交汇点，是全国老工业基地，拥有国家级经济技术开发区、国家高新技术产业开发区和国家农业科技园区。现正着力改造提升冶金建材、机械汽配等传统优势产业，培育发展新材料、新装备、新医药、新能源和大数据“四新一大”产业，积极发展“内江黑猪、资中血橙、威远无花果、特色水产”四大特色农业产业和电子商务、现代物流、文化旅游、现代金融、健康养老五大现代服务业，加快构建内江“5+4+5”现代产业体系。', '内江和宜宾同为川南经济区的重要城市，亲如兄弟、情同手足，面临共同的发展机遇，拥有广阔的合作空间。学什么?怎么学?内江的哪些经验做法可以“为我所用”?学习考察期间，党政代表团一行边看、边学、边思考，前往内江国家农业科技园区、巨腾(内江)资讯配件有限公司、内江国际物流港项目、市中区永安镇尚腾新村等地，考察内江现代农业园区建设、资中血橙产业发展、电子信息产业发展、重点项目建设、农旅融合发展、乡村振兴等情况，详细了解内江经济社会发展的好经验、好做法，与当地干部和企业管理人员深入交流，以便更好地借鉴内江的发展模式，并结合实际创新运用到自身工作中，推动宜宾经济社会实现高质量发展。', '刘中伯说，内江与宜宾一直以来有着深厚的友谊。近年来，内江坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实省委、省政府部署要求，全市经济社会发展取得了显著成就，为宜宾提供了有益借鉴。希望内江与宜宾充分发挥自身优势，进一步加强双方合作，通过实实在在的举措，推动省委、省政府关于川南经济区一体化发展的部署要求取得实质性进展。', '刘中伯强调，学习考察的关键在于学以致用、取长补短。党政代表团成员要找准自身差距，明确目标任务，认真学习内江在产业发展、乡村振兴、农文旅融合等方面的好经验、好做法，结合自身实际进行思考，加快把学习考察成果转化为推动工作的强大动力和有力举措，不断开创宜宾各项事业高质量发展的新局面。', '马波对宜宾市党政代表团的到来表示诚挚欢迎。马波说，当前，内江正深入学习贯彻习近平总书记重要讲话精神，全面贯彻落实党中央大政方针和省委“一干多支、五区协同”“四向拓展、全域开放”战略部署，全面融入成渝地区双城经济圈建设，加快建设“一枢纽、两中心、三基地、四区块”，实施“五项重大行动计划”，加快建设成渝地区双城经济圈中的新内江。', '马波表示，近年来，宜宾发展迅猛，推动高质量发展的经验做法值得内江认真学习借鉴。希望内江与宜宾进一步加强交流合作，为推进川南经济区一体化发展，推动成渝地区双城经济圈中部崛起、南翼跨越、北翼振兴作出应有的贡献。', '宜宾市领导李静、张平、王萍、张健、谢杰参加学习考察。内江市领导李思明、曾云忠、秦金保、罗万东、陈万见、何兵陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>239</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团成都学习考察记对标先进学经验深化合作谋发展</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/rdgz/202106/t20210607_1470224.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['以学习促进步，以交流促共赢，以合作谋发展。6月3日，宜宾市党政代表团赴成都，深入吉利学院、龙泉山城市森林公园等地，学习考察成都东部新区城市规划、绿色发展等情况，共商两市合作发展大计。', '期间，五粮液集团公司分别与成都经济技术开发区管理委员会、成都市温江区人民政府签署深化合作协议。', '2018年4月，宜宾市党政代表团到成都市学习考察，双方签订了《成都市人民政府 宜宾市人民政府深化区域协同发展合作协议》;', '2018年10月，成都市党政代表团来宜考察，双方举行“加强区域合作 共推南向开放”座谈会暨签约仪式，签订13项合作协议;', '2021年1月26日，成都宜宾两市“加强区域合作 共推南向开放”合作协议签约后的第一个落地项目——极米智能光电产业园正式开园……', '2018年以来，成都、宜宾两地先后开展11次交流互访，签署22个合作协议，明确66个合作事项。成宜高速公路、成自宜高铁、五粮液新经济中心、成宜装备制造产业园等一批重大项目相继建成或加快实施，区域合作全面展开并向纵深推进。', '历史赋予了成宜两地深厚的友谊和坚实的合作基础，成渝地区双城经济圈建设的国家战略为深化成宜合作提供了新的时代舞台。站在新的历史起点，宜宾认真落实党中央、省委部署，紧紧依靠成都、依托成都、融入成都，加快建成跨区域合作先行示范市。', '为认真落实省委“一干多支、五区协同”发展战略，深化交流、扩大合作，推动成都宜宾两市务实合作、协同发展迈上新台阶，在成都期间，五粮液集团公司分别与成都经济技术开发区管理委员会、成都市温江区人民政府签署深化合作协议。五粮液集团将在两区现有产业基础上，推动产业转型升级，为成宜区域协同发展贡献力量。', '作为全国重要的经济中心、科技中心、金融中心、文创中心、对外交往中心和国际综合交通通信枢纽，成都一直是四川高质量发展的标杆。', '近年来，成都市深入落实省委“一干多支、五区协同”战略部署，聚焦新时代成都 “三步走”战略目标和“国家中心城市、美丽宜居公园城市、国际门户枢纽城市、世界文化名城”战略定位，奋力在践行新理念、服务新格局、落实新战略上走在前列。', '2020年，党中央作出推动成渝地区双城经济圈建设的战略部署。国家战略机遇催生了成都东部新区，这片蓄势已久的热土迎来前所未有的机遇，获得了前所未有的动力。东部新区坚持公园城市发展理念，突出国际门户枢纽、国际交往中心、前沿产业基地和科技创新中心等功能，构建“双城一园、一轴一带”的空间布局，即空港新城、简州新城、天府奥体公园，沱江发展轴和金简仁产业带。', '每次到成都学习考察都是一次思想的升华，都能感受到成都高质量发展带来的巨变，“常看常新”成为了大家口中的高频词。一路看、一路学、一路思，代表团成员先后前往吉利学院、龙泉山城市森林公园等地，认真学习成都东部新区在发展理念、规划设计、生态建设、产业发展等方面的先进经验和创新做法，并与成都东部新区的同志交流探讨，表示将认真学习借鉴其好经验好做法，并结合实际创新运用到自身工作中。', '一个是省会成都，一个是川南重镇。两地南北呼应、产业互补、道路相通，在互利合作中育先机，在相互成就中开新局。站在“十四五”的新起点，成宜合作其时已至、其势日兴、其效可期。(记者 陈戎)']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>239</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到达州和遂宁学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020-11-13</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202011/t20201113_1379726.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为深入贯彻党的十九届五中全会精神，全面落实省委“一干多支、五区协同”发展战略，推动宜宾更好地融入成渝地区双城经济圈建设，11月11日至12日，宜宾市党政代表团到达州市和遂宁市学习考察。市委书记刘中伯，市人大常委会主任陆振华，市政协主席吕晓莉参加。省人大常委会副主任、达州市委书记包惠，市委副书记、市长郭亨孝，市人大常委会主任胥健，市政协主席康莲英;遂宁市委书记邵革军，市委副书记、市长邓正权，市人大常委会主任刘云，市政协主席刘德福陪同。', '考察中，党政代表团一行先后来到达州市规划馆、钢琴博物馆、莲花湖湿地公园、玄武岩纤维产业园、兆纪光电科技有限公司和遂宁市喜之郎集团西部生产基地、志超科技(遂宁)有限公司、四川江淮汽车有限公司、四川裕能新能源电池材料有限公司，分别学习考察两市在城市规划设计、城市生态修复、产业转型发展等方面的先进经验和模式，并与当地干部沟通交流，详细了解具体的工作措施和机制，以便更好地结合自身实际运用到宜宾经济社会发展中。刘中伯要求，党政代表团各成员要认真学习两市在城市规划建设、产业转型发展等方面的好经验、好做法，在规划设计、机制完善、创新工作等方面下功夫，把学习考察成果转化为推动工作的强大动力和具体举措，推动宜宾经济社会高质量发展。', '刘中伯说，近年来，达州市聚焦“两个定位”，以“敢想敢干、真抓实干、干成干好”的责任担当，在脱贫攻坚、产业发展、城市建设等方面取得了重大成就，正朝着经济总量“冲刺4000亿元”、城市规模“建设双300”、争创全省经济副中心的目标阔步前行;遂宁市实施“三大”倍增计划，突出“五大”抓手工程，全力建设联动成渝的重要枢纽门户和成渝发展主轴绿色经济强市，在产业转型、城市建设、改革开放等方面创造了许多先进经验。真诚希望与两市进一步加强交流合作，积极融入成渝地区双城经济圈建设，在推动治蜀兴川再上新台阶、加快构建新发展格局中担当新使命、共创新辉煌。', '包惠对宜宾市党政代表团到达州市学习考察表示欢迎。包惠说，近年来，宜宾贯彻落实省委、省政府决策部署，全市经济社会发展取得显著成就，特别是站高谋远规划建设大学城、全力发展新兴产业，为今后经济社会发展奠定了坚实基础。希望两地抢抓成渝地区双城经济圈建设重大历史机遇，深化互动互访、拓展交流合作，携手并进、共同发展。', '邵革军对宜宾市党政代表团到遂宁市学习考察表示欢迎。邵革军说，近年来，宜宾高站位抢抓国省战略机遇，成功获批全省首个省级新区，现代产业发展实现无中生有、强势崛起。宜宾和遂宁有着广阔合作空间，希望双方充分发挥各自优势，深入开展全方位、宽领域、多层次的交流合作，实现资源共享、优势互补，促进两市互利共赢、共同发展。', '宜宾市领导唐浪生、张琦、张健参加学习考察。达州市领导熊隆东、杜海洋、丁应虎，遂宁市领导谭晓政、赵京东、陈伐陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>239</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到广安市学习考察</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202011/t20201112_1379156.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['在认真贯彻落实党的十九届五中全会精神、省委常委会(扩大)会议精神的关键时刻，11月11日，宜宾市党政代表团到广安市学习考察。市委书记刘中伯，市人大常委会主任陆振华，市政协主席吕晓莉参加学习考察。广安市委书记李建勤，市委副书记、市长曾卿，市人大常委会主任余仪，市政协主席肖雷，市委副书记赵波陪同。', '学习考察中，党政代表团一行来到广蓉生物医药产业园、广深产业园、小平干部学院、川渝高竹新区等地，通过听取介绍、深入交流，详细了解广安市在项目引进、政策制定、园区发展、干部培训、服务保障等方面的情况，认真学习广安市在经济社会发展中的好经验、好做法。刘中伯指出，广安市在每个园区、每个产业的发展中都有不同的特点，在产业发展、干部培训等方面创造了许多值得宜宾学习的典型经验，让党政代表团一行深受启发。党政代表团各成员要在学习考察中边看、边学、边思考，结合宜宾实际，促使广安市的好经验、好做法在宜宾开花结果，推动宜宾经济社会发展。', '刘中伯对广安市近年来经济社会发展取得的显著成绩表示祝贺，向广安市对宜宾的支持表示衷心感谢。刘中伯说，近年来，广安市不断深化“三大合作”，加快建设“三大园区”，大力实施“两大工程”，全力以赴抓项目、抓政策、抓资金，全面争创成渝地区双城经济圈建设示范市，经济社会发展取得显著成果。希望广安与宜宾进一步加强双方合作，共同融入成渝地区双城经济圈建设，通过实实在在的举措，促进双方共赢发展。衷心祝愿广安的明天越来越美好。', '李建勤对宜宾党政代表团到广安市学习考察表示热烈欢迎。李建勤表示，近年来，宜宾发展迅猛，推动了经济社会高质量发展，走在了全省前列，特别是宜宾大力度、大手笔规划建设大学城，无中生有发展新兴产业的经验做法值得广安认真学习借鉴。希望宜宾与广安进一步加强交流合作，携手融入成渝地区双城经济圈建设，互促互进、发展共赢。', '宜宾市领导张琦、张健参加学习考察。广安市领导张伟、苏虎彪、陈捷陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>239</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>凉山州政府州政协来宜学习考察地震预警体系建设和地震预警应用工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/qxbm/bmdt/202007/t20200731_1318401.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['2020年7月27-29日，凉山州政协副主席、州防震减灾局局长周仕伦，州政府副秘书长苏杰带领凉山州发改、经信、财政、教体、应急、文广、卫健等部门一行16人来宜学习考察地震预警体系建设和地震预警技术应用工作。', '凉山州政府、政协一行先后深入到与凉山地形地貌相似的屏山县书楼镇中心校、中心小学校、宜宾广电网络公司实地考察调研地震预警在学校的应用效果，电视地震预警信息服务效果以及应急广播“村村响”增设地震预警信息服务到村民的情况，分别听取了学校和广电网络公司负责人就地震预警信息终端实际应用、管理，电视预警信息服务群众取得的成效情况介绍。随后，在市地震监测中心进行了宜宾地震预警应用交流座谈，市财政、教体、应急等市级相关部门参加了座谈会。', '会上，市地震监测中心主任王辉对宜宾推进地震预警体系建设和地震预警应用进行了介绍。一是市委、市政府坚持以人民为中心的发展理念，高度重视防震减灾工作，特别是市委书记刘中伯、市长杜紫平多次对防震减灾工作作出的批示指示。市委、市政府出台了《关于进一步加强全市防震减灾工作的意见》提出建立符合宜宾实际的地震预警体系;二是宜宾所处区域地震地质构造背景，近年来宜宾地震活动情况，地震烈度分布以及潜在的地震风险;三是按照市委市政府的要求，建设符合宜宾特色的地震预警体系。目前，地震预警在学校、医院，电视地震预警信息和应急广播系统“村村响”增设地震预警信息的应用和取得的效果。地震预警信息服务群众“最后一公里”的效果，在学校得到了学校师生、学生家长，在社会得到了社会群众和家庭群众的一致肯定。通过地震预警信息服务，在紧急情况下采取适合的应急避险措施，最大限度地保护人民群众的生命安全。 凉山州表示，凉山州历史上多次发生强烈地震，所处的地震烈度更高，地震地质构造更复杂，地震风险也更高，是国家划定的重点危险区。凉山雷波县紧邻宜宾的屏山县，一旦发生强烈地震，将严重波及和影响宜宾，建立地震预警体系和地震预警应用很有必要。凉山建立地震预警体系后，双方还可以相互形成网络，达到信息资源共享。', '市委常委、副市长关晶波高度重视并对本次工作提出了要求。市政协副主席廖霆与凉山州政协副主席周仕伦进行座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>239</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到泸州市学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/202006/t20200618_1291340.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实全省“一干多支、五区协同”发展战略和川南经济区工作座谈会精神，共同抢抓成渝地区双城经济圈建设重大机遇，为川南经济区一体化发展作出积极贡献，昨(17)日，宜宾市党政代表团前往泸州市学习考察。市委书记刘中伯，市委副书记、市长杜紫平，市人大常委会主任陆振华，市政协主席吕晓莉参加学习考察。泸州市委书记刘强，市委副书记、市长杨林兴，市人大常委会主任曹建国，市政协主席田亚东陪同。', '自古宜泸共饮一江水，亲如兄弟、情同手足。泸州和宜宾同为川南经济区的重要城市，同属争创全省经济副中心城市，面临共同的发展机遇，拥有广阔的合作空间。学习考察期间，党政代表团一行边看、边学、边思考，详细了解泸州经济社会发展的好经验、好做法，与当地干部和企业管理人员深入交流，以便更好地借鉴泸州的发展模式，并结合实际创新运用到自身工作中，推动宜宾经济社会实现高质量发展。', '“自动化酿造更有利于提高酒的品质和产量。”“集中打造白酒产业集群为今后发展提供了有力支撑。”泸州地处中国白酒金三角核心腹地，白酒产业发展态势良好，已建成10平方公里全产业链的酒业集中发展区。在四川泸州白酒产业园区和郎酒庄园，党政代表团一行考察了泸州老窖酿酒工程技改项目、酒镇规划建设和郎酒产业基地。泸州大手笔推进白酒产业规划发展，给代表团成员带来极大的震撼。刘中伯说，泸州白酒产业发展的经验非常值得宜宾学习借鉴，特别是要认真研究制定宜宾白酒产业整体规划，为宜宾白酒产业发展提供科学规划支撑。', '中国电子信息产业集团泸州产业园计划总投资120亿元，项目由中国电子信息产业集团有限公司牵头，旗下中电科技、中国长城等子公司及其生态链相关产业集群参与，重点发展电子信息、物联网、信息安全工程等产业，集研发、制造、展示等为一体;恒力(泸州)产业园总投资226亿，属全省重点项目，于今年4月16日正式开工建设，全面投产后预计每年可实现营业收入300亿元。在深入了解到泸州市在推进传统产业转型升级、新兴产业做大做强的经验做法后，刘中伯说，泸州市紧紧抓住以龙头企业对产业发展支撑这个关键，着力在招大引强上下功夫，以龙头企业支撑引领产业发展，为产业发展做大做强奠定了坚实基础。', '学习考察中，刘中伯反复强调，学习考察的关键在于学以致用、取长补短。近年来，泸州市在传统产业转型升级、新兴产业做大做强等方面取得了显著成绩。党政代表团成员要认真学习泸州在产业发展、项目推进、技术创新等方面的好经验、好做法，结合自身实际进行思考，加快把学习考察成果转化为推动工作的强大动力和有力举措，不断开创宜宾各项事业发展的新局面。', '刘强表示，泸州和宜宾同属川南经济区，亲如一家人。近年来，宜宾市委、市政府眼界开阔、手笔宏大，经济社会发展各方面都取得了显著成绩。泸州市将认真学习宜宾的好经验、好做法，紧密结合实际运用到泸州经济社会发展中，实现泸州高质量发展。', '在泸州期间，党政代表团一行还来到太平镇红色文化教育基地，参观了中国工农红军四渡赤水太平渡陈列馆、毛泽东四渡赤水纪念馆等。', '宜宾市领导李学焦、张健，五粮液集团党委书记、董事长李曙光参加学习考察。泸州市领导付小平、李堂兵陪同学习考察。(记者 何川)']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>239</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>遂宁市赴屏山县考察学习移民安置工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-05-15</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tpbd/202005/t20200515_1275123.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['5月13日，由遂宁市扶贫开发局党组成员罗实带队的考察团一行赴屏山县考察学习移民安置工作。遂宁市各(市、区、县)扶贫开发局局长、副局长及移民安置股股长共26人参加考察。', '考察团一行现场观摩学习了屏山县县城规划、屏山镇移民搬迁安置社区、向家坝水电站施工区，听取了屏山县移民乡镇搬迁安置情况汇报，实地走访询问搬迁群众生产生活状况，对移民搬迁安置点规划设计、公共服务配套建设、产业发展、就业创业、精准扶贫等情况进行深入了解。同时详细询问了屏山县在移民工作中的特色亮点做法，双方还就移民工作中的重点难点问题进行了互动讨论，县扶贫开发局党组成员、总会计师黄辉蓉现场解答了考察团人员提出的问题。', '考察团一致认为，屏山县是向家坝水电站移民规模最大的县，县委、县政府历年来始终把移民搬迁作为经济、产业、文化发展工作的重要抓手、推动新型城镇化的重要载体、促进发展方式转变的重要契机，坚持系统谋划，统筹推进，各项工作进展顺利，基本实现“搬得出、稳得住、能致富”这一总体目标。遂宁市将以此为契机，回去后认真总结梳理本次考察成果，虚心学习借鉴屏山的移民搬迁工作经验，并在实际工作中因地制宜、灵活运用，坚持把移民搬迁与精准扶贫有机结合，科学搬迁安置，大力培育增收产业，为全面完成移民安置任务探索出一条可复制、可推广的经验。(罗天育 文/图)']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>239</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到南充市学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2017-11-28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201711/t20171128_14773.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为深入学习贯彻落实党的十九大精神，对标先进、实干争先，以更实的举措推动乡村振兴战略在宜宾落地落实。昨（27）日，宜宾市党政代表团来到南充市，学习考察南充市在幸福美丽新村建设和脱贫攻坚工作方面的先进经验和做法。市委书记刘中伯，市委副书记、市长杜紫平，市委副书记邓正权参加。南充市委书记宋朝华，市委副书记、市长吴群刚，市委副书记古正举陪同。', '南充市西充县凤鸣镇双龙桥村面积2.5平方公里，该村按照现代农业、乡村旅游、新村建设、农业农村改革“四位一体”发展模式，投资6600万元，建成川东北民居130套，是国家级“宜居村庄示范”和四川省“十大幸福美丽新村”。学习考察中，党政代表团一行首先来到凤鸣镇龙桥村，学习考察该村幸福美丽新村建设情况。边走边看、边看边问，刘中伯、杜紫平一行不断与凤鸣镇和龙桥村负责人交谈，详细了解该村在建设幸福美丽新村中的好经验、好做法，并叮嘱宜宾市相关部门负责人，要按照党的十九大提出的乡村振兴战略，高起点高标准做好宜宾幸福美丽新村规划，切实推动宜宾幸福美丽新村建设。', '随后，党政代表团一行来到南充市仪陇县日兴镇黎明村和新政镇安溪潮村。黎明村幅员面积1.5平方公里，建档立卡贫困户47户，通过易地扶贫搬迁、引进龙头企业等系列举措， 2017年预计该村可实现整村出列目标；安溪潮村幅员面积1.9平方公里，建档立卡贫困户48户，2016年脱贫45户，2017年脱贫3户。在黎明村和安溪潮村学习考察中，刘中伯、杜紫平一行先后来到黎明村莲藕水产产业园、村委会、食用菌种植基地、曙光梁柑橘产业园和安溪潮村蔬菜产业园、蛋鸡产业园等地，详细了解两村在脱贫攻坚工作中的好经验、好做法。刘中伯指出，脱贫攻坚关键是要抓好产业发展、抓好示范带动。全市上下要对标先进、实干争先，在学习考察中边看、边学、边思考，认真学习黎明村和安溪潮村在脱贫攻坚中的先进经验和做法，并结合自身实际进行思考，以更实的举措确保脱贫攻坚任务圆满完成。', '市领导蒋刚、李敏、邱东林、刘岗、王力平、张平、王萍、张世炜和市直相关部门负责人、各区县委书记参加学习考察。南充市领导林建国、陈圣伦、向贵瑜陪同学习考察。（来源：宜宾日报 记者 何川）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>239</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>眉山市党政代表团来宜学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-04-08</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201804/t20180408_15536.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['4月2日，眉山市委副书记黄剑东率眉山市党政代表团到宜宾学习考察。眉山市人大常委会副主任陈万忠，眉山市副市长冉登祥参加考察。市人大常委会副主任张家园，副市长张平陪同考察。', '在江安县，代表团先后来到该县工业园区中科板业（竹板生产企业）、四川天竹竹资源有限公司、琦丰绿色能源有限公司实地考察，通过听介绍、观展板、看车间等方式，详细了解该县竹产品的综合利用、产品研发、深加工等情况。', '代表团对江安大力发展配套产业、循环产业、绿色产业惠及人民群众给予高度评价，认为该县深挖绿色产业潜能、深入推动三产融合发展所采取的系列举措，符合党的十九大精神和“绿水青山就是金山银山”的科学论断，更符合习近平总书记来川视察重要讲话精神，值得学习借鉴。双方还就促进交流、加强合作等事宜进行深入探讨，希望进一步加强交流与合作，携手并肩，共促发展。', '在长宁县，代表团一行先后到蜀南竹海博物馆、观云亭、翡翠长廊，通过听取情况介绍、实地考察，详细了解了长宁县竹文化、竹产业及竹生态旅游的发展情况。', '在实地考察、了解相关情况后，代表团对长宁县丰富的竹资源和良好的竹生态称赞不已。同时就长宁县以蜀南竹海创建国家5A级景区为核心品牌为支撑，推动竹生态旅游，全力推进竹产业转型升级与一二三产业深度融合发展的举措表示赞赏。代表团表示，宜宾眉山在竹林资源与竹文化、竹产业发展有很多相似的地方，希望两地进一步加强沟通交流，深化两地区域交流合作，着力优势互补，实现共促发展。（来源：宜宾日报 宋成均 申洪雁）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>239</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到钦州市学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2018-05-29</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201805/t20180529_15868.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['5月28日，市委书记刘中伯率宜宾市党政代表团到广西壮族自治区钦州市学习考察，并与钦州市就双方进一步加强沟通合作进行座谈。市委副书记邓正权参加学习考察并在座谈会上介绍宜宾情况。受外出学习的钦州市委书记王革冰和参加广西壮族自治区专题会议的钦州市委副书记、市长谭丕创委托，钦州市委常委、常务副市长王雄昌陪同学习考察并出席座谈会。', '钦州市处于广西北部湾经济区中心位置，是北部湾城市区群、北部湾经济区的重要组成部分，是国家和广西壮族自治区规划确定的北部湾临海核心工业区、北部湾千万标箱集装箱大港、北部湾沿海石化产业基地、北部湾大型修造船基地，在全国开放开发战略中占据重要地位。考察中，党政代表团一行先后来到中马钦州产业园区、钦州港、祥龙物流、广西钦州保税港区等地，详细了解钦州市在产业园区建设、港口建设、保税区建设以及物流企业发展等情况，对钦州在发展中取得的先进经验和模式赞叹不已。刘中伯要求，党政代表团成员要认真学习，特别是钦州市在产业园区、港口和保税区建设发展中的模式和机制，结合宜宾自身实际，以更实的举措推动省委、省政府关于推进南向开发开放的重大部署在宜宾落地落实。', '在随后的座谈会上，刘中伯说，宜宾是长江首城，区位优势独特、经济基础扎实、交通优势凸显、开放平台良好，是四川南向开放的桥头堡。当前，宜宾正深入贯彻落实习近平总书记对四川工作重要指示精神和省委书记彭清华来川工作后系列重要讲话精神，广泛深入开展“大学习、大讨论、大调研”活动，落实省委、省政府构建“一干多支”发展格局、推进南向开发开放等重大部署，加快推进更具战略地位的交通强市建设、大力实施“产业发展双轮驱动”战略、大力推动商贸物流产业发展，已成为全省除成都外交通优势最为明显的城市。此次宜宾市党政代表团来钦州学习考察，就是为了寻找两市合作的契机，更好地推动南向开放开发落地落实。', '刘中伯表示，通过学习考察，钦州市的发展给党政代表团成员留下了深刻的印象，收获非常大。希望两市进一步加强联系对接，寻求在更多领域的全方位合作，特别是把钦州至宜宾铁路运输线路作为南向开放开发的主要通道，并尽快签订战略合作协议，把两市的合作项目落到实处。', '王雄昌在座谈会上代表钦州市委、市政府对宜宾市党政代表团一行表示热烈欢迎，并介绍钦州市相关情况。王雄昌表示，宜宾是历史文化名城，特别是近几年来，随着“一带一路”、长江经济带和成渝经济区等发展战略的深入实施，宜宾经济社会发展取得了令人瞩目的成就，非常值得钦州市学习借鉴。希望通过此次宜宾党政代表团来钦州考察把两地的关系推上一个新的台阶，加强沟通对接，在更多方面开展合作，更好地服务南向开放开发战略。', '市领导谢杰、陈扬杰参加学习考察并出席座谈会。钦州市委常委、秘书长陆明陪同学习考察并主持座谈会。（来源：宜宾日报 记者 何川）']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>239</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>仁寿县赴翠屏区考察学习农村产业融合发展工作</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2018-07-19</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/ztzl/ybsxmngzzl/xmtj/201807/t20180719_70074.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['，仁寿县政府毛超英副县长携发改、财政等9个部门及相关企业到翠屏区考察学习国家农村产业融合发展示范园创建工作。区政府苟绍华副区长及区级相关部门陪同考察调研。', '仁寿县一行先后考察了明威镇早茶基地、智能低山云雾灌溉系统、宜宾国家农业科技园及川茶集团生产线，并听取了明威镇及川茶集团的工作汇报。', '考察期间，大家边走边看，不时与现场汇报人员、企业代表、茶农交流，了解当地农村产业融合发展的先进做法和可取之处，推进农村产业结构调整，开展农村产业融合发展与乡村振兴战略相结合的思路和措施。', '考察组对翠屏区创建国家农村产业融合发展示范园工作经验表现出了浓厚的兴趣。对产业示范园提出到2020年，建成15万亩生态早茶基地，农业综合产值达100亿元以上，其中茶叶年产综合产值达80亿元以上，农民人均可支配收入达21233元以上的目标给予高度评价和认可。认为翠屏区以宜宾市国家农业科技园区为载体，依托川茶集团等农业龙头企业产品生产交易信息化程度高、技术密集的优势，探索创建“新技术渗透型国家农村产业融合发展示范园”的经验，具有独特性、开创性、代表性和示范性。(来自翠屏区人民政府)']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>239</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团到防城港市学习考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-05-28</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201805/t20180528_15867.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为深入贯彻落实省委、省政府推进南向开发开放等重大部署，5月27日，市委书记刘中伯率宜宾市党政代表团到广西壮族自治区防城港市学习考察，并与防城港市就双方如何进一步加强沟通合作进行座谈。市委副书记邓正权参加学习考察并在座谈会上介绍宜宾情况。受参加广西壮族自治区专题会议的防城港市委书记、市人大常委会主任李希强，市长班忠柏委托，防城港市委副书记廖立勇陪同学习考察并出席座谈会。', '防城港市是北部湾畔的一座港口工业城市、边关口岸城市、生态海湾城市，拥有东兴国家重点开发开放试验区、构建开放型经济新体制综合试点试验城市等多个国家级开发开放平台，是北部湾经济区极具发展潜力的城市之一。考察中，党政代表团一行先后来到防城港城市之窗、澳加粮油公司、防城港码头等地，边走边看、边看边问，通过听取情况介绍和实地考察，详细了解防城港市在城市建设、产业发展、物流航运等方面的情况。刘中伯要求，党政代表团成员要认真学习防城港市在港口建设、物流发展等方面的先进经验和模式，结合自身实际、落实具体措施，更好地发挥宜宾作为四川南向开放桥头堡的作用。', '在随后的座谈会上，刘中伯说，宜宾是长江首城，区位优势独特、经济基础扎实、交通优势凸显、开放平台良好，是四川南向开放的桥头堡。近年来，宜宾坚持以习近平新时代中国特色社会主义思想为统揽，紧扣省委、省政府决策部署，大力实施“产业发展双轮驱动”战略，巩固提升传统优势产业，加快培育高端成长型产业，并加快推进“双城”建设，呈现出良好发展态势。特别是在全国“八纵八横”高铁规划中，“京昆”与“兰广”在宜宾交汇，加上成贵高铁和川南城际高铁，有四条高铁在宜宾交汇，伴随着四通八达的高速公路和新机场迁建等项目顺利推进，宜宾已成为全省除成都外交通优势最为明显的城市。', '刘中伯表示，当前，宜宾正深入贯彻落实习近平总书记对四川工作重要指示精神和省委书记彭清华来川工作后系列重要讲话精神，广泛深入开展“大学习、大讨论、大调研”活动，落实省委、省政府构建“一干多支”发展格局、推进南向开发开放等重大部署。希望防城港市与宜宾能建立友好城市关系，并由双方分别成立工作小组加强沟通对接，力争早日签署战略合作协议，务实推进双方在多方面的全方位合作。', '受李延强、班忠柏委托，廖立勇在座谈会上首先对宜宾市党政代表团一行表示热烈欢迎。廖立勇表示，通过座谈对接对宜宾有了更深的了解。防城港市是北部湾经济区重要的开放城市，防城港市将进一步加强与宜宾在怎么样实现“一带一路”倡议等方面进行有效对接，务实推进双方在港口建设、物流运输、旅游业等多方面的深入合作，使两市合作取得丰硕的成果。', '市领导谢杰、陈扬杰参加学习考察并出席座谈会。防城港市领导梁宗勇、蹇兴超陪同并出席座谈会。（来源：宜宾日报 记者 何川）']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>239</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>宜宾市党政代表团在巴中市广元市学习考察大力发展特色农业产业加快推进幸福美丽新村建设</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2017-11-29</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/zdlyxxgk/xczx/201711/t20171129_56681.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['宜宾市党政代表团在巴中市、广元市学习考察:大力发展特色农业产业加快推进幸福美丽新村建设', '11月28日，宜宾市党政代表团前往巴中市和广元市，学习考察两市在易地扶贫搬迁、幸福美丽新村建设、特色农业产业发展等方面的经验做法。市委书记刘中伯，市委副书记、市长杜紫平，市政协主席吕晓莉，市委副书记邓正权参加学习考察。巴中市委书记罗增斌，市委副书记、市长何平，市委副书记余先河；广元市委书记王菲，市委副书记、市长邹自景，市政协主席杨凯，市委副书记冯磊陪同。', '巴中市恩阳区属革命老区、秦巴连片扶贫开发地区，现有贫困村119个、贫困户1.49万户，该区充分运用土地政策，科学规划、分步实施、全域推进，实现增减挂钩、土地整理、地灾搬迁“三大国土项目”对贫困村全覆盖，严格按照打造全国脱贫攻坚新示范的要求，以创建省级“幸福美丽新村示范县（区）”为目标，通过实施扶贫项目，全区贫困人口、贫困发生率分别下降到2016年末的5.2万人、10.2%。考察中，刘中伯、杜紫平一行先后参观了恩阳区下八庙镇凤凰包村和柳林镇桅杆垭村，听取了相关负责人汇报，并通过交流详细了解了当地易地扶贫搬迁工作和幸福美丽新村建设的相关情况。刘中伯要求，党政代表团各成员要认真学习恩阳区在易地扶贫搬迁工作和幸福美丽新村建设中的先进经验和做法，充分整合政策资源，高标准制定规划，因地制宜发展产业，下决心将宜宾的易地扶贫搬迁工作和幸福美丽新村建设做出示范。', '在广元市苍溪县，刘中伯、杜紫平一行先后来到歧坪镇天新现代农业园区和四川华朴现代农业股份有限公司，详细了解苍溪县特色农业产业发展情况。苍溪县是“世界红心猕猴桃原产地”，该县坚定不移推进红心猕猴桃产业发展，从“五小”家庭经济起步探索，逐渐形成了产业集群化、生产标准化、经营合作化、技术集成化、服务社会化的现代产业发展格局。刘中伯要求，党政代表团各成员要认真学习苍溪县发展特色农业产业的模式，更新观念、开拓思路，干出实实在在的成效，更好地推动全市特色农业产业发展。', '市领导蒋刚、李敏、邱东林、刘岗、王力平、张平、王萍、张世炜和市直相关部门负责人、各区县委书记参加学习考察。广元市领导苟英明陪同。（来源：宜宾日报 记者 何川）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>239</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>市委中心组赴泸州市考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2017-03-22</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201703/t20170322_13420.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['3月21日，市委书记刘中伯率市委中心组赴泸州市考察学习。市人大常委会主任陆振华，市政协主席吕晓莉，市委副书记邓正权参加考察学习。泸州市委书记蒋辅义，市委副书记、市长刘强，市人大常委会主任曹建国，市政协主席田亚东，市委副书记谭红杰陪同考察。', '看项目，找差距，思发展。刘中伯一行在泸州市实地参观、考察了泸州市发展现状，重点考察学习泸州市在发展会展经济、产业创新、城市建设等方面的相关经验做法。近年来，泸州市从产业、交通、城市、民生等方面着力，2016年全市完成地区生产总值1481.9亿元，同比增长9.5%。“十三五”期间，泸州市将抢抓“一带一路”和长江经济带机遇，着力推进产业转型发展、综合交通枢纽建设、区域中心城市建设等重点工作，确保经济运行在中高速增长的合理区间。', '在泸州国际会展中心和中国白酒金三角酒业园区，刘中伯一行参观了2017中国国际酒业博览会开幕式现场，观看了博览会相关视频，并参观了博览会展馆和酒业园区孵化器创新规划馆。在现场参观并听取了博览会和酒业园区相关介绍后，刘中伯指出，酒产业这篇文章很大，宜宾要充分利用好白酒文化节等大型活动的展示平台，注重细节包装、提升产品档次、加大品牌宣传，在国际国内市场上充分展示宜宾酒的特色，赢得更多的市场。', '占地1123亩的西南商贸城建筑面积160万平方米，包括专业市场群综合体、现代物流信息中心、精品市场区、酒店会展与电子商务等多功能区，2016年实现交易额52亿元，带动就业6万人。泸州金融商业中心是一座集金融、商贸、商务办公、酒店、城市旅游观光、居住于一体的现代城市综合体，于2012年正式启动，已建成金融商务办公、商业购物、文化休闲游乐、高端生态住宅等各类业态100多万平方米建筑体量。', '在西南商贸城和金融商业中心，刘中伯一行边看边听介绍，并不时与相关负责人交谈，详细了解项目建设、企业运行、规划布局等情况。刘中伯指出，学习考察的关键在于学以致用，取长补短。全市上下要对标先进，学习泸州市的经验作法，找准差距、实干争先，把考察学习成果转化为推动工作的动力和举措，不断开创宜宾各项事业发展的新局面。', '市领导陈政、蒋刚、谢杰、王可、唐浪生、刘岗、余继红、张家园、张平、王萍、孙小川、徐红兵、马利春、张世炜、王光柱、廖霆、王宾、林伦菊，法检“两长”参加考察学习。泸州市领导鞠丽、王建翔、杨晓、徐斌、封安、付小平，泸州市法检“两长”陪同考察。（来源：宜宾日报 记者 何川）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>239</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>我市党政代表团在江苏盐城考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016-06-02</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201606/t20160602_11850.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['6月1日，市委副书记、市长杜紫平率宜宾市党政代表团到江苏盐城市考察学习。市政协主席葛燎原参加考察学习。', '考察中，宜宾市党政代表团先后来到盐城悦达起亚第三工厂、奥新新能源汽车有限公司、中韩盐城产业园规划展示馆，实地考察学习盐城市在招商引资、科技创新、新能源汽车、产城融合、产业转型等方面的先进做法和经验。', '每到一处，杜紫平都详细了解盐城市在产业招商和产业配套、产业创新中的成功做法。杜紫平希望随行的各相关部门负责人要认真学习借鉴盐城在产业转型发展中坚持高端引领，强化科技创新，大力发展战略性新兴产业，着力推进经济转型升级的举措、工作方法和工作精神，要与宜宾“创新发展、转型发展、绿色发展”的实际结合起来，增强转型发展动力。要紧紧抓住当前发展机遇，坚持需求导向和产业化方向，盯紧高端产业和产业高端环节，加大招商引资和招才引智力度，引进一批国内外领军企业、高端人才，厚植发展优势，为宜宾发展增添新的动力。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>239</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>宜宾市委常委副市长于滨率队考察学习桂林市文化旅游产业</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2013-06-19</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zjyb/ybly/lydt/201306/t20130619_62892.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为贯彻落实市委四届六次全会精神，加快宜宾建设国际生态文化旅游目的地的步伐，6月13至15日，宜宾市委常委、副市长于滨率队，对广西壮族自治区桂林市旅游产业与文化产业、科技产业的情况进行了考察学习。宜宾市人民政府副秘书长赵兵兵、市文化局局长汪庆、市科技局局长高一川、市旅游局局长傅婷等参加了考察学习活动。', '在桂林市期间，考察团一行先后考察了山水风光体验之旅、历史文化追寻之旅、休闲度假浪漫之旅、民族风情精彩之旅和科技文化旅游震撼之旅。桂林市丰富的文化旅游业态、运用高科技打造的旅游演艺产品、高品质的旅游管理给考察团留下了深刻的印象。', '实地考察结束以后，桂林市委书记、市人大常委会主任赵乐秦，市委常委、副市长、宣传部长陈丽华及相关部门和宜宾考察团进行了座谈。就两市开展文化旅游领域的合作进行交流，特别就两市直航问题进行了详细沟通。', '于滨副市长代表宜宾考察团对桂林市的热情接待表示感谢，希望进一步扩大宜宾市与桂林市在文化、科技和旅游方面的合作，共同进步，共同发展。她表示，桂林市在文化旅游产业发展和以旅游引领城市发展上有许多好经验、好做法值得宜宾市认真学习和借鉴。她要求宜宾市考察团各相关部门借鉴桂林市的经验，结合本地、本部门实际，深入思考，在宜宾市文化旅游产业发展中找到结合点和突破口，充分利用宜宾丰富的旅游资源和其他产业资源，开动脑筋，整合好这些资源，搞好策划、包装，积极推动文化、科技与旅游的融合发展，成功打造国际生态文化旅游目的地；要进一步发挥旅游引领城乡统筹发展、促进生态建设和绿色工业发展、促进城市功能发展和社会文明进步等方面的作用，为把宜宾市建设成为“长江上游辐射吸纳川滇黔的区域中心城市”和“长江上游国际生态山水园林城市”作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>239</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>徐进率队到芜湖市考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2015-11-28</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201511/t20151128_10198.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['今年，宜宾市和安徽芜湖市结成友好城市。昨（27）日，市委副书记、市长徐进率领的宜宾市党政代表团来到芜湖市考察学习。', '芜湖市是皖江城市带承接产业转移示范区的核心城市、合芜蚌自主创新综合试验区的重要成员。全市建成区绿化覆盖率39.3%，城市发展过程中，坚持市域一体、拥江联动、组团发展，推动跨江发展，建设江北新城。近年来，芜湖市先后获得“国家园林城市”、“中国优秀旅游城市”等称号，四次荣获中国人居环境范例奖。', '考察中，代表团一行先后来到安徽埃夫特智能装备有限公司、东旭光电科技有限公司、奇瑞汽车股份有限公司、奇瑞第三总装车间、安徽皖江集团、芜湖市城市规划馆、芜湖市镜湖区市民服务中心、雕塑文化园，学习芜湖市在招商引资、产业转型以及城市建设、社会服务管理等方面的先进做法和经验。', '每到一处，徐进不仅了解企业生产销售、商品特点等情况，还详细了解芜湖市在城市建设、产业配套、产业相融过程中的成功做法。徐进说，各相关部门要认真学习借鉴芜湖在创新发展、产业强市、统筹城乡、开放合作、和谐发展的先进理念、工作方法和工作精神，把芜湖经验与宜宾“十三五”规划实际结合起来，科学制订明年的工作思路和措施，推动宜宾科学发展。', '芜湖市领导冯克金、段玉嘉、韩卫民陪同考察。宜宾市领导黄洪浪、景世刚参加考察。（来源：宜宾日报 记者 王宇 发自安徽芜湖）']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>239</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>宜宾党政代表团在绵阳学习考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2013-10-19</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201310/t20131018_2799.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['10月17日至18日，宜宾市委书记王铭晖，市委副书记、市长徐进率宜宾党政代表团赶赴绵阳市，深入中国（绵阳）科技城总部经济实验区和科技城创新中心学习考察。绵阳市委书记罗强，绵阳市委副书记、市长林书成陪同考察。宜宾市人大常委会主任陆振华、市政协主席葛燎原、市委副书记吕晓莉参加考察活动。', '绵阳是党中央、国务院批准建设的我国唯一的科技城。近年来，绵阳市委、市政府抓住这一金字招牌，坚持走科技立市、工业兴市和绿色低碳、产城一体的发展路子，大力推进科技城加快发展。位于绵阳科技城集中发展区的中国（绵阳）科技城总部经济实验区是该市大手笔打造的一个重大项目。项目规划面积33.7平方公里，总投资300亿元，以总部办公、金融服务、软件开发、现代商务、运动休闲为发展方向，着力建设具有科技城特色的总部基地，聚集先进制造业的百亿级产业园区和宜居宜业宜商的生态型城市新区，建成后将带动地区生产总值300亿元，实现财政收入20亿元。', '与总部经济实验区相邻的科技城创新中心，主要功能是科技城建设成就展示、科技行政服务、科技交易服务、科技金融服务、科技人才服务和科技企业孵化，A区一期已于2012年12月正式运行，项目全面建成后，将成为集创新、孵化、交易、转化等功能于一体的面向全国开放的创新平台。', '观看大手笔的新区规划，领略全新的产业发展，目睹高规格的建设成果，考察团一行对绵阳近年来经济社会发展取得的成效高度赞赏。考察尚未结束，王铭晖就现场召集考察团一行，围站在园区的一块空地上，第一时间与大家分享学习考察的体会。王铭晖说，亲身感受绵阳的发展，特别是新区的建设，有三个方面的经验值得宜宾深入学习思考：一是规划起点高，二是业态起点高，三是建设水平高。', '王铭晖指出，当前，宜宾正在按照“2365”战略布局，加快建设长江上游辐射吸纳川滇黔的区域中心城市和长江上游国际生态山水园林城市，绵阳市新区规划建设发展的三条经验对我们有非常重要的借鉴意义。', '一是在发展规划上必须敢于解放思想，用先进的理念、超前的思维抓规划，确保规划不落后。当前宜宾正在着力推进的几个城市新区建设，包括环长江景观大道的建设，都是我们重点推进的工作，一定要先把规划做好。特别是国家级的临港经济技术开发区，目前规模偏小，要立足更大发展，进一步修编规划，沿江一线拓展区域，确保临港开发区有更大发展空间。', '二是在产业业态上要突出重点，抓好现代产业业态打造。要围绕“三个中心、六大基地”的产业定位，结合各地实际，有针对性地安排产业布局。要依托资源优势，打好资源牌，围绕资源做足产业发展文章。临港要突出重点产业，重视科技引领，着力发展装备制造、临港物流、新材料等优势产业和新兴业态，不能眉毛胡子一把抓，没有重点产业没有拳头企业，要通过发展新兴的业态支撑临港快速发展。', '三是在推进建设中要注重品位，做到规划大气，建设洋气，施工精细。要重视建筑的色彩、天际线、文化展示，确保建筑经得起历史检验。要突出生态环保，把更多的土地用于发展生态，确保宜商宜业又宜居。在规划建设中，既要认真学习外地成功经验，避免少走弯路，又要立足本地实际，不能照抄照搬，要充分运用好宜宾三江六岸的宝贵资源，打造有地方特色的自然人文景观。', '考察团一行还前往由华晨汽车集团和五粮液集团联合控股的绵阳新晨动力机械有限公司看望公司员工，了解公司生产经营情况。', '宜宾、绵阳两市领导易林、周宇、袁兵、颜超、王黎、谢杰、肖渭明、李学焦和市中级人民法院院长孙重光、市政府秘书长邓前卫参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>239</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>徐进率宜宾市党政代表团考察学习南京港集团</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201511/t20151127_10192.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['11月26日下午，市委副书记、市长徐进率宜宾市党政代表团到江苏省南京港考察学习，南京港（集团）有限公司总经理沈卫新陪同考察。在随后的座谈会上，双方围绕宜宾港和南京港如何发挥各自优势，进行深度合作发展进行了坦诚交流，并达成系列共识。', '座谈会上，徐进从区位、资源、产业等方面介绍了宜宾的优势。“南京和宜宾同饮一江水，我们来到南京感到很亲切。这次来江苏首选南京港，一是学习，二是寻求深度合作。”徐进满怀诚意地说，“十二五”即将过去，宜宾经济、宜宾港在“十三五”如何发展，宜宾也正在积极谋划编制“十三五”规划纲要。近年来，南京港在临港经济、港口发展等方面取得了不错的成绩，这些经验值得宜宾港学习。南京港是全国乃至亚洲最大的内河港，也是江河联运的枢纽港，南京港的发展目标、战略定位都值得宜宾借鉴，南京港是宜宾想寻求的最佳合作伙伴。今年四月，宜宾港和南京港有了良好合作的开端，双方开通了宜宾到南京到唐山、宜宾到南京到韩国的航线业务，这次到南京港是想寻求和南京港深度合作发展，实现两地共同发展。同时，也邀请南京港的主要负责同志到宜宾港看看，增加交流。', '徐进表示，宜宾港和南京港在下一步深度合作发展中，要在现有合作基础上，继续巩固已有业务，不断拓展新业务。双方通过合作，在成都共同设立办事处，方便两港业务办理，利用各自优势，联合挖掘内陆货运资源。同时，双方加强人才之间的交流，特别是为宜宾港培养港口经营管理人才。', '沈卫新代表南京港（集团)有限公司对宜宾市党政代表团来南京港考察表示欢迎，并介绍了南京港集团经营发展基本情况。他表示，南京港将按照南京市委、市政府要求，加强长江经济带港口物流区域合作。宜宾港是长江上游辐射吸纳川滇黔的枢纽中心，南京港与宜宾港的合作具有很好的战略意义，南京港今后将在拓展物流、信息、人才等方面与宜宾港加强沟通合作，充分依托双方各自优势，积极探索项目、资本合作等方式融入发展。同时，利用好南京港比较优势共同服务好宜宾经济发展。', '据悉，南京港集团是长江干线最大的公共码头经营企业，以能源、原材料等大宗物资和集装箱装卸、中转、远输服务为主。南京港是我国沿海25个主枢纽港之一和对外开放的一类口岸，位于长江与东部沿海“T”型经济发展战略带结合部，具有承启东西、贯通南北的区位优势，五种运输方式汇聚，对内连接长江流域及中原、华东、华南、华北地区等10多个省市，对外辐射80多个国家和地区近200个港口。', '会前，徐进一行还实地考察了南京港龙潭港区。市人大常委会副主任黄洪浪，副市长景世刚参加考察并出席座谈会。（来源：宜宾日报 记者 王宇 发自江苏南京）']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>239</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>徐进率队到中铁大桥院学习考察跨江大桥规划建设</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2014-09-05</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/xxgk/jryb/tt/201409/t20140905_5884.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['9月4日，市委副书记、市长徐进率宜宾党政代表团来到万里长江第一桥的制造者——中铁大桥勘测设计院集团，并前往武汉市鹦鹉洲大桥施工现场学习考察。中铁大桥勘测设计院集团有限公司党委书记田道明出席座谈会。市政协主席葛燎原，市委副书记吕晓莉参加考察。', '著名诗句“一桥飞架南北，天堑变通途”是对万里长江第一桥的写照，而说到这一赞誉就不得提及该桥的设计和建造者中铁大桥勘测设计院集团有限公司（简称中铁大桥院）。该公司六十余年来，共勘测设计监理了公路、铁路、市政等大型、特大型桥梁1000余座，其中长江大桥60余座，黄河大桥30余座，跨海大桥30余座，工程项目遍及全国各地及十余个国家和地区。', '我市正在建设的金沙江公铁两用桥就是中铁大桥院的作品。我市党政代表团来到正在建设中的武汉第8座长江大桥——鹦鹉洲长江大桥。此桥是世界上跨度最大的三塔四跨悬索桥。为顺应武汉市发展的需要，鹦鹉洲大桥桥面宽38米，设计为双向8车道，建成后是武汉最宽的桥梁。', '听取相关介绍后，徐进表示，今年4月修编后的宜宾城市总体规划获省政府批准，这意味着宜宾城市建设的蓝图已经绘就，根据城市发展需要的城市建设将依据规划展开，欢迎中铁大桥院发挥所长，参与到宜宾的城市建设中来。徐进说，规划设计是中铁大桥院的优势，希望能借助中铁大桥院的人才和团队力量，帮助宜宾培养规划设计人才。徐进表示，宜宾将切实帮助中铁大桥院在宜宾项目的推进工作，以便金沙江公铁两用桥的建设工作顺利推进。', '田道明感谢宜宾一直以来对中铁大桥院的信任和对中铁大桥院在宜项目的帮助和支持，他表示将寻找机会积极参与宜宾的城市建设，并将做好、做优金沙江公铁两用桥项目，努力将这一项目做成鲁班奖精品项目。', '市政府秘书长邓前卫，中铁大桥院集团有限公司副总经理庄勇，中铁大桥院集团有限公司副总工程师梅新咏参加座谈会。（来源：宜宾日报）']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>239</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>菜坝镇赴赵场街道学习考察生态旅游四点启示</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2012-12-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zjyb/tzyb/tzdt/201212/t20121217_67577.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['第一，认清形势。一是宜宾将建设成为百万人口的大城市，市民到城郊进行休闲观光度假将是必然趋势，是一个很大的消费群体和目标市场。作为近郊乡镇的菜坝有得天独厚的资源优势、人文优势和区位优势。二是要立足认识目前我镇休闲观光业存在脏、乱、差、小、少、低的现状，必须正视问题，扬长避短，错位发展，做出特色，做强品牌。第二，增强发展意识。要增强机遇意识、服务意识、环保意识和效益意识，将资源优势转化为发展动力，不要抱着金饭碗还吃不饱饭。第三，统筹规划。努力完善设施，坚持以农民为主体，政府给予扶持，提高经营管理水平。第四，抓好落实。要想方设法打破土地瓶颈、资金瓶颈、思想瓶颈、营销瓶颈，推进菜坝生态旅游开发，努力打造休闲观光基地，实现经济效益、社会效益、生态效益同步提高。生态旅游开发四点启示']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>239</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>翠屏区招商小分队在上海学习考察和对接投资项目</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2012-04-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zjyb/tzyb/tzdt/201204/t20120423_67507.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['，以区委李勇蔺书记为队长的翠屏区招商小分队到台湾蓝天集团上海百脑汇总部和上海汉庭连锁酒店集团两个企业进行了学习考察。', '百脑汇品牌隶属于全球大型I T产品制造商之一——蓝天电脑，为台湾上市公司，属台湾50强企业之一，以笔记本型电脑、键盘、电源供应器等IT相关产品的研发和生产为主营业务。勇蔺书记一行在台湾蓝天集团大陆资产二区开发四处总监即西南区总经理蒋启伟的陪同下参观考察了上海百脑汇徐汇等两个店，在一边参观商场和一边听取蒋总经理等企业负责人介绍百脑汇有关情况下，还不时询问了企业的产值、企业经营管理模式以及资源配置、产业链延伸等情况。', '在上海汉庭连锁酒店集团，勇蔺书记一行参观考察该集团公司在上海虹桥的汉庭高端品牌全季酒店和上海汉庭连锁酒店集团总部。双方就上海汉庭连锁酒店集团在宜投资项目存在的困难及下一步业务拓展投资计划进行了广泛交流和沟通。勇蔺书记代表区委、区政府对上海汉庭连锁酒店集团来宜投资表示非常欢迎，并就在建项目和拟建项目各环节的协调服务工作对招商局提出了要求。', '上海汉庭连锁酒店集团正式成立于2008年2月，是国内第一家多品牌的经济型连锁酒店集团。 2010年3月26日登陆美国拉斯达克上市。截止到目前，汉庭签约门店超过1000家，开业门店达到648家，出租率、经营业绩各项指标均在业内处于领先地位。', '区委常委、区政府副区长万云江，区政府金融办主任、区招商局副局长（主持工作）王卫等相关人员参加考察和对接。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>239</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>长宁县赴珠三角考察学习对接项目</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2011-05-31</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zjyb/tzyb/tzdt/201105/t20110531_66089.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['为加强与珠三角地区企业的联系，宣传长宁招商引资政策和投资环境，学习借鉴以上地区的先进发展经验， 4月8日至 4月16日，长宁县发改局、招商局、住建局、旅游局等部门在长宁县委书记、县人大常委会主任曾健同志，长宁县政协主席秦立均同志的率领下，赴广东等地考察学习并开展招商引资及项目对接活动。', '晚，长宁县招商考察团抵达广州。在12日至15日的四天时间里，招商考察团开展了多项考察学习和招商洽谈活动。并于 4月12日和 4月13日分别与番禺女企业家协会和部分珠三角知名企业家召开了合作恳谈会，增进互信了解，寻找合作机会。', '恳谈会上，长宁县委书记、县人大常委会主任曾健向莅临会议的企业家们表示热烈欢迎和感谢，详细介绍了长宁的区位条件、资源禀赋和发展前景，介绍了长宁县新近提出的打造“中国竹生态养生名城”的战略构想，热情邀请企业家们在方便的时候到长宁旅游观光、项目考察、投资兴业。', '副县长刘拯主持会议，并介绍了长宁未来城市发展定位和构想；副县长李德斌介绍了长宁的资源潜力和招商引资优惠政策，介绍了我县致力于发展“四个百亿元”工业区，主动推荐和承接的招商项目情况。与会嘉宾还观看了长宁县的电视形象宣传专题片。', '在与番禺女企业家协会的恳谈会上，长宁县与广州豪剑集团就战略合作事宜达成了共识并举行了签约仪式。根据协议，广州豪剑集团将为长宁县招商引资、项目推荐和设立驻珠三角办事处等提供支持。', '为了搞好此次招商引资及宣传推荐工作，长宁县招商局、长宁县住建局、长宁县旅游局等部门精心印制并发放了1000多份宣传资料，详细介绍我县资源优势和重点推荐的几十个投资项目，获得了与会企业家们的高度关注。为下一步在珠三角地区招商引资工作的开展和项目对接奠定了良好的基础。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>239</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>县委中心组赴宜宾县考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2010-06-23</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.yibin.gov.cn/zjyb/tzyb/tzdt/201006/t20100623_66328.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['月28日，县委书记虞平率县委中心组成员一行前往宜宾县进行考察学习。该县县委书记曾勇以及四家班子领导陪同参加了考察学习。', '考察组一行来到宜宾县参观了城北新区的纸机厂、志源电子厂、常达机械、长虹红星电子厂和向家坝施工现场建设，听取了各项目负责人所作的情况介绍。', '在座谈会上，县委书记虞平在听取了该县所作的工作经验介绍后指出，今天县委中心组成员一行来到宜宾县，一是来看望我们的老领导；二是来学习先进的工作经验。刚才，我们参观了城北工业园区和向家坝水电站建设现场，听取了先进的发展经验介绍，让我们感受到了宜宾县大手笔谋发展的工作思路和创新做法，确实值得借鉴学习。我们一定将宜宾县这些好的工作思路、做法和创新举措带回去认真研究，结合江安的实际来思考，大手笔谋发展，抢抓机遇，积极推进招商引资政策、强化园区管理模式，让江安的经济能够持续良性发展。', '宜宾县县委书记曾勇主持了座谈会，对我县中心组成员一行到宜宾县考察学习表示由衷的欢迎，强调今后两县要加强联系合作，携起手来共同促进宜宾经济又快又好发展。为表达两县之间的友谊，县委书记虞平，县委副书记、县长张家园还为宜宾县送去了王羲之“兰亭序”竹简一幅。']</t>
         </is>
